--- a/documents/Auditori_Tehnicki_eksperti_KODOVI.xlsx
+++ b/documents/Auditori_Tehnicki_eksperti_KODOVI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOPER\ISOQAR\NOVA SPECIFIKACIJA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOPER\ISOQAR\isoqar-app\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58893CBB-F1C0-4A46-908C-58B05B2CCFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F330C-8D8A-437E-80BA-7F0E13E453F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="-21600" windowWidth="17415" windowHeight="20985" xr2:uid="{4E6FD707-5938-4E3C-8B20-DDDB07DA4ED2}"/>
+    <workbookView xWindow="-28890" yWindow="-21600" windowWidth="17415" windowHeight="20985" activeTab="1" xr2:uid="{4E6FD707-5938-4E3C-8B20-DDDB07DA4ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="AUDITORI" sheetId="1" r:id="rId1"/>
@@ -7092,10 +7092,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7113,6 +7113,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7122,13 +7125,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7449,9 +7449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF35839-415E-46C5-8B7E-EE0F76B40595}">
   <dimension ref="A1:L922"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C458" sqref="C458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -24117,8 +24117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB3771A-DE05-488A-9C11-A60A36D8DB91}">
   <dimension ref="A1:D626"/>
   <sheetViews>
-    <sheetView topLeftCell="B484" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C339" sqref="C339:C348"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -24160,136 +24160,136 @@
     </row>
     <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="22" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="49"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="22" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="22" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="49"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="22" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="22" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="49"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="22" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="49"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="22" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="22" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="49"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="22" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="22" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="49"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="22" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="22" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="49"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="22" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="49"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="22" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="22" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="49"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="22" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="22" t="s">
         <v>1146</v>
       </c>
@@ -24308,64 +24308,64 @@
     </row>
     <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="49"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="22" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="49"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="22" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="49"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="22" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="49"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="22" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="49"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="22" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="49"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="22" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="22" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="49"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="22" t="s">
         <v>1156</v>
       </c>
@@ -24396,8 +24396,8 @@
     </row>
     <row r="31" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="22" t="s">
         <v>1160</v>
       </c>
@@ -24428,24 +24428,24 @@
     </row>
     <row r="34" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="22" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="49"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="22" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="49"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="22" t="s">
         <v>1166</v>
       </c>
@@ -24464,24 +24464,24 @@
     </row>
     <row r="38" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="49"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="22" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="49"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="22" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="50"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="22" t="s">
         <v>1171</v>
       </c>
@@ -24502,8 +24502,8 @@
     </row>
     <row r="42" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="49"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="22" t="s">
         <v>1174</v>
       </c>
@@ -24522,8 +24522,8 @@
     </row>
     <row r="44" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="49"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="22" t="s">
         <v>1177</v>
       </c>
@@ -24542,24 +24542,24 @@
     </row>
     <row r="46" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="49"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="22" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="49"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="22" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="49"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="22" t="s">
         <v>1182</v>
       </c>
@@ -24578,48 +24578,48 @@
     </row>
     <row r="50" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="49"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="22" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="49"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="22" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="49"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="22" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="49"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="22" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="49"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="22" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="49"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="22" t="s">
         <v>1190</v>
       </c>
@@ -24638,8 +24638,8 @@
     </row>
     <row r="57" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="50"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="22" t="s">
         <v>1193</v>
       </c>
@@ -24660,16 +24660,16 @@
     </row>
     <row r="59" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="49"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="22" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="49"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="22" t="s">
         <v>1197</v>
       </c>
@@ -24700,16 +24700,16 @@
     </row>
     <row r="63" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="49"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="22" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="49"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="22" t="s">
         <v>1202</v>
       </c>
@@ -24728,8 +24728,8 @@
     </row>
     <row r="66" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="49"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="22" t="s">
         <v>1205</v>
       </c>
@@ -24748,8 +24748,8 @@
     </row>
     <row r="68" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="49"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="22" t="s">
         <v>1208</v>
       </c>
@@ -24768,8 +24768,8 @@
     </row>
     <row r="70" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="49"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="22" t="s">
         <v>1211</v>
       </c>
@@ -24788,8 +24788,8 @@
     </row>
     <row r="72" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="49"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="22" t="s">
         <v>1214</v>
       </c>
@@ -24808,48 +24808,48 @@
     </row>
     <row r="74" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="49"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="22" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="49"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="22" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="49"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="22" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="49"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="22" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="49"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="22" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="49"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="22" t="s">
         <v>1222</v>
       </c>
@@ -24868,48 +24868,48 @@
     </row>
     <row r="81" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="49"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="22" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="49"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="22" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="49"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="22" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="49"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="22" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="49"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="22" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="49"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="46"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="22" t="s">
         <v>1230</v>
       </c>
@@ -24940,24 +24940,24 @@
     </row>
     <row r="89" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A89" s="49"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
       <c r="D89" s="23" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="49"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
       <c r="D90" s="22" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="50"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="46"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="22" t="s">
         <v>1236</v>
       </c>
@@ -25014,32 +25014,32 @@
     </row>
     <row r="96" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="49"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
       <c r="D96" s="22" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="49"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="22" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="49"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
       <c r="D98" s="22" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="49"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="46"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="22" t="s">
         <v>1245</v>
       </c>
@@ -25058,48 +25058,48 @@
     </row>
     <row r="101" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="49"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
       <c r="D101" s="22" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="49"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
       <c r="D102" s="22" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="49"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
       <c r="D103" s="22" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="49"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46"/>
       <c r="D104" s="22" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="49"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
       <c r="D105" s="22" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="49"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="22" t="s">
         <v>1253</v>
       </c>
@@ -25130,8 +25130,8 @@
     </row>
     <row r="109" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="50"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="46"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="22" t="s">
         <v>1256</v>
       </c>
@@ -25152,7 +25152,7 @@
     </row>
     <row r="111" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="49"/>
-      <c r="B111" s="46"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="22" t="s">
         <v>1258</v>
       </c>
@@ -25200,40 +25200,40 @@
     </row>
     <row r="115" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="49"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
       <c r="D115" s="22" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="49"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
       <c r="D116" s="22" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="49"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="47"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="46"/>
       <c r="D117" s="22" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A118" s="49"/>
-      <c r="B118" s="47"/>
-      <c r="C118" s="47"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="46"/>
       <c r="D118" s="23" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="50"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="46"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
       <c r="D119" s="22" t="s">
         <v>1269</v>
       </c>
@@ -25254,8 +25254,8 @@
     </row>
     <row r="121" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="49"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="22" t="s">
         <v>1272</v>
       </c>
@@ -25274,40 +25274,40 @@
     </row>
     <row r="123" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="49"/>
-      <c r="B123" s="47"/>
-      <c r="C123" s="47"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
       <c r="D123" s="22" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="49"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="22" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="49"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="47"/>
+      <c r="B125" s="46"/>
+      <c r="C125" s="46"/>
       <c r="D125" s="22" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="49"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="47"/>
+      <c r="B126" s="46"/>
+      <c r="C126" s="46"/>
       <c r="D126" s="22" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="50"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="46"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
       <c r="D127" s="22" t="s">
         <v>1279</v>
       </c>
@@ -25328,32 +25328,32 @@
     </row>
     <row r="129" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="49"/>
-      <c r="B129" s="47"/>
-      <c r="C129" s="47"/>
+      <c r="B129" s="46"/>
+      <c r="C129" s="46"/>
       <c r="D129" s="22" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="49"/>
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
       <c r="D130" s="22" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="49"/>
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="46"/>
       <c r="D131" s="22" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="49"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="46"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
       <c r="D132" s="22" t="s">
         <v>1285</v>
       </c>
@@ -25386,24 +25386,24 @@
     </row>
     <row r="135" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="49"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="47"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
       <c r="D135" s="22" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="49"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="47"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
       <c r="D136" s="22" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="49"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="46"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
       <c r="D137" s="22" t="s">
         <v>1292</v>
       </c>
@@ -25478,7 +25478,7 @@
     </row>
     <row r="143" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="49"/>
-      <c r="B143" s="47"/>
+      <c r="B143" s="46"/>
       <c r="C143" s="23" t="s">
         <v>1299</v>
       </c>
@@ -25488,7 +25488,7 @@
     </row>
     <row r="144" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="49"/>
-      <c r="B144" s="47"/>
+      <c r="B144" s="46"/>
       <c r="C144" s="27"/>
       <c r="D144" s="22" t="s">
         <v>1302</v>
@@ -25496,7 +25496,7 @@
     </row>
     <row r="145" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="49"/>
-      <c r="B145" s="47"/>
+      <c r="B145" s="46"/>
       <c r="C145" s="27"/>
       <c r="D145" s="22" t="s">
         <v>1303</v>
@@ -25504,7 +25504,7 @@
     </row>
     <row r="146" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="49"/>
-      <c r="B146" s="47"/>
+      <c r="B146" s="46"/>
       <c r="C146" s="27"/>
       <c r="D146" s="22" t="s">
         <v>1304</v>
@@ -25512,7 +25512,7 @@
     </row>
     <row r="147" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="49"/>
-      <c r="B147" s="47"/>
+      <c r="B147" s="46"/>
       <c r="C147" s="27"/>
       <c r="D147" s="22" t="s">
         <v>1305</v>
@@ -25520,7 +25520,7 @@
     </row>
     <row r="148" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="49"/>
-      <c r="B148" s="46"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="28"/>
       <c r="D148" s="22" t="s">
         <v>1306</v>
@@ -25564,7 +25564,7 @@
     </row>
     <row r="152" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="49"/>
-      <c r="B152" s="46"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="22" t="s">
         <v>1310</v>
       </c>
@@ -25586,24 +25586,24 @@
     </row>
     <row r="154" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="49"/>
-      <c r="B154" s="47"/>
-      <c r="C154" s="47"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="22" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="49"/>
-      <c r="B155" s="47"/>
-      <c r="C155" s="47"/>
+      <c r="B155" s="46"/>
+      <c r="C155" s="46"/>
       <c r="D155" s="22" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="49"/>
-      <c r="B156" s="46"/>
-      <c r="C156" s="46"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="47"/>
       <c r="D156" s="22" t="s">
         <v>1317</v>
       </c>
@@ -25662,8 +25662,8 @@
     </row>
     <row r="161" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="49"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="46"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="47"/>
       <c r="D161" s="22" t="s">
         <v>1324</v>
       </c>
@@ -25682,24 +25682,24 @@
     </row>
     <row r="163" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="49"/>
-      <c r="B163" s="47"/>
-      <c r="C163" s="47"/>
+      <c r="B163" s="46"/>
+      <c r="C163" s="46"/>
       <c r="D163" s="22" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="49"/>
-      <c r="B164" s="47"/>
-      <c r="C164" s="47"/>
+      <c r="B164" s="46"/>
+      <c r="C164" s="46"/>
       <c r="D164" s="22" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="50"/>
-      <c r="B165" s="46"/>
-      <c r="C165" s="46"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="47"/>
       <c r="D165" s="22" t="s">
         <v>1329</v>
       </c>
@@ -25720,32 +25720,32 @@
     </row>
     <row r="167" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="49"/>
-      <c r="B167" s="47"/>
-      <c r="C167" s="47"/>
+      <c r="B167" s="46"/>
+      <c r="C167" s="46"/>
       <c r="D167" s="22" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="49"/>
-      <c r="B168" s="47"/>
-      <c r="C168" s="47"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="46"/>
       <c r="D168" s="22" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="49"/>
-      <c r="B169" s="47"/>
-      <c r="C169" s="47"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="46"/>
       <c r="D169" s="22" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="49"/>
-      <c r="B170" s="46"/>
-      <c r="C170" s="46"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="47"/>
       <c r="D170" s="22" t="s">
         <v>1335</v>
       </c>
@@ -25776,8 +25776,8 @@
     </row>
     <row r="173" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="49"/>
-      <c r="B173" s="46"/>
-      <c r="C173" s="46"/>
+      <c r="B173" s="47"/>
+      <c r="C173" s="47"/>
       <c r="D173" s="22" t="s">
         <v>1339</v>
       </c>
@@ -25796,32 +25796,32 @@
     </row>
     <row r="175" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="49"/>
-      <c r="B175" s="47"/>
-      <c r="C175" s="47"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="46"/>
       <c r="D175" s="22" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="49"/>
-      <c r="B176" s="47"/>
-      <c r="C176" s="47"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="46"/>
       <c r="D176" s="22" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="49"/>
-      <c r="B177" s="47"/>
-      <c r="C177" s="47"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="46"/>
       <c r="D177" s="22" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="49"/>
-      <c r="B178" s="46"/>
-      <c r="C178" s="46"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="47"/>
       <c r="D178" s="22" t="s">
         <v>1345</v>
       </c>
@@ -25878,40 +25878,40 @@
     </row>
     <row r="183" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="49"/>
-      <c r="B183" s="47"/>
-      <c r="C183" s="47"/>
+      <c r="B183" s="46"/>
+      <c r="C183" s="46"/>
       <c r="D183" s="22" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="49"/>
-      <c r="B184" s="47"/>
-      <c r="C184" s="47"/>
+      <c r="B184" s="46"/>
+      <c r="C184" s="46"/>
       <c r="D184" s="22" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="49"/>
-      <c r="B185" s="47"/>
-      <c r="C185" s="47"/>
+      <c r="B185" s="46"/>
+      <c r="C185" s="46"/>
       <c r="D185" s="22" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="49"/>
-      <c r="B186" s="47"/>
-      <c r="C186" s="47"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="46"/>
       <c r="D186" s="22" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="50"/>
-      <c r="B187" s="46"/>
-      <c r="C187" s="46"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="47"/>
       <c r="D187" s="22" t="s">
         <v>1355</v>
       </c>
@@ -25958,30 +25958,30 @@
     </row>
     <row r="191" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="30"/>
-      <c r="B191" s="47"/>
-      <c r="C191" s="47"/>
+      <c r="B191" s="46"/>
+      <c r="C191" s="46"/>
       <c r="D191" s="22" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="30"/>
-      <c r="B192" s="47"/>
-      <c r="C192" s="47"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="46"/>
       <c r="D192" s="22" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="30"/>
-      <c r="B193" s="47"/>
-      <c r="C193" s="47"/>
+      <c r="B193" s="46"/>
+      <c r="C193" s="46"/>
       <c r="D193" s="22"/>
     </row>
     <row r="194" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="30"/>
-      <c r="B194" s="46"/>
-      <c r="C194" s="46"/>
+      <c r="B194" s="47"/>
+      <c r="C194" s="47"/>
       <c r="D194" s="22" t="s">
         <v>1363</v>
       </c>
@@ -26000,32 +26000,32 @@
     </row>
     <row r="196" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="30"/>
-      <c r="B196" s="47"/>
-      <c r="C196" s="47"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="46"/>
       <c r="D196" s="22" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="30"/>
-      <c r="B197" s="47"/>
-      <c r="C197" s="47"/>
+      <c r="B197" s="46"/>
+      <c r="C197" s="46"/>
       <c r="D197" s="22" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="30"/>
-      <c r="B198" s="47"/>
-      <c r="C198" s="47"/>
+      <c r="B198" s="46"/>
+      <c r="C198" s="46"/>
       <c r="D198" s="22" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="30"/>
-      <c r="B199" s="46"/>
-      <c r="C199" s="46"/>
+      <c r="B199" s="47"/>
+      <c r="C199" s="47"/>
       <c r="D199" s="22" t="s">
         <v>1369</v>
       </c>
@@ -26044,24 +26044,24 @@
     </row>
     <row r="201" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="30"/>
-      <c r="B201" s="47"/>
-      <c r="C201" s="47"/>
+      <c r="B201" s="46"/>
+      <c r="C201" s="46"/>
       <c r="D201" s="22" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="30"/>
-      <c r="B202" s="47"/>
-      <c r="C202" s="47"/>
+      <c r="B202" s="46"/>
+      <c r="C202" s="46"/>
       <c r="D202" s="22" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="30"/>
-      <c r="B203" s="46"/>
-      <c r="C203" s="46"/>
+      <c r="B203" s="47"/>
+      <c r="C203" s="47"/>
       <c r="D203" s="22" t="s">
         <v>1374</v>
       </c>
@@ -26080,8 +26080,8 @@
     </row>
     <row r="205" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="30"/>
-      <c r="B205" s="46"/>
-      <c r="C205" s="46"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="47"/>
       <c r="D205" s="22" t="s">
         <v>1377</v>
       </c>
@@ -26100,8 +26100,8 @@
     </row>
     <row r="207" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="30"/>
-      <c r="B207" s="46"/>
-      <c r="C207" s="46"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="47"/>
       <c r="D207" s="22" t="s">
         <v>1380</v>
       </c>
@@ -26144,8 +26144,8 @@
     </row>
     <row r="211" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="30"/>
-      <c r="B211" s="46"/>
-      <c r="C211" s="46"/>
+      <c r="B211" s="47"/>
+      <c r="C211" s="47"/>
       <c r="D211" s="22" t="s">
         <v>1385</v>
       </c>
@@ -26164,16 +26164,16 @@
     </row>
     <row r="213" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="30"/>
-      <c r="B213" s="47"/>
-      <c r="C213" s="47"/>
+      <c r="B213" s="46"/>
+      <c r="C213" s="46"/>
       <c r="D213" s="22" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="30"/>
-      <c r="B214" s="46"/>
-      <c r="C214" s="46"/>
+      <c r="B214" s="47"/>
+      <c r="C214" s="47"/>
       <c r="D214" s="22" t="s">
         <v>1389</v>
       </c>
@@ -26192,32 +26192,32 @@
     </row>
     <row r="216" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="30"/>
-      <c r="B216" s="47"/>
-      <c r="C216" s="47"/>
+      <c r="B216" s="46"/>
+      <c r="C216" s="46"/>
       <c r="D216" s="22" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="30"/>
-      <c r="B217" s="47"/>
-      <c r="C217" s="47"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="46"/>
       <c r="D217" s="22" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="30"/>
-      <c r="B218" s="47"/>
-      <c r="C218" s="47"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="46"/>
       <c r="D218" s="22" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="30"/>
-      <c r="B219" s="46"/>
-      <c r="C219" s="46"/>
+      <c r="B219" s="47"/>
+      <c r="C219" s="47"/>
       <c r="D219" s="22" t="s">
         <v>1394</v>
       </c>
@@ -26250,32 +26250,32 @@
     </row>
     <row r="222" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="49"/>
-      <c r="B222" s="47"/>
-      <c r="C222" s="47"/>
+      <c r="B222" s="46"/>
+      <c r="C222" s="46"/>
       <c r="D222" s="22" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="49"/>
-      <c r="B223" s="47"/>
-      <c r="C223" s="47"/>
+      <c r="B223" s="46"/>
+      <c r="C223" s="46"/>
       <c r="D223" s="22" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="49"/>
-      <c r="B224" s="47"/>
-      <c r="C224" s="47"/>
+      <c r="B224" s="46"/>
+      <c r="C224" s="46"/>
       <c r="D224" s="22" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="49"/>
-      <c r="B225" s="46"/>
-      <c r="C225" s="46"/>
+      <c r="B225" s="47"/>
+      <c r="C225" s="47"/>
       <c r="D225" s="22" t="s">
         <v>1402</v>
       </c>
@@ -26294,48 +26294,48 @@
     </row>
     <row r="227" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="49"/>
-      <c r="B227" s="47"/>
-      <c r="C227" s="47"/>
+      <c r="B227" s="46"/>
+      <c r="C227" s="46"/>
       <c r="D227" s="22" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A228" s="49"/>
-      <c r="B228" s="47"/>
-      <c r="C228" s="47"/>
+      <c r="B228" s="46"/>
+      <c r="C228" s="46"/>
       <c r="D228" s="23" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="49"/>
-      <c r="B229" s="47"/>
-      <c r="C229" s="47"/>
+      <c r="B229" s="46"/>
+      <c r="C229" s="46"/>
       <c r="D229" s="22" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="49"/>
-      <c r="B230" s="47"/>
-      <c r="C230" s="47"/>
+      <c r="B230" s="46"/>
+      <c r="C230" s="46"/>
       <c r="D230" s="22" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="49"/>
-      <c r="B231" s="47"/>
-      <c r="C231" s="47"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="46"/>
       <c r="D231" s="22" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="49"/>
-      <c r="B232" s="46"/>
-      <c r="C232" s="46"/>
+      <c r="B232" s="47"/>
+      <c r="C232" s="47"/>
       <c r="D232" s="22" t="s">
         <v>1410</v>
       </c>
@@ -26378,48 +26378,48 @@
     </row>
     <row r="236" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="49"/>
-      <c r="B236" s="47"/>
-      <c r="C236" s="47"/>
+      <c r="B236" s="46"/>
+      <c r="C236" s="46"/>
       <c r="D236" s="22" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="49"/>
-      <c r="B237" s="47"/>
-      <c r="C237" s="47"/>
+      <c r="B237" s="46"/>
+      <c r="C237" s="46"/>
       <c r="D237" s="22" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="49"/>
-      <c r="B238" s="47"/>
-      <c r="C238" s="47"/>
+      <c r="B238" s="46"/>
+      <c r="C238" s="46"/>
       <c r="D238" s="22" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="49"/>
-      <c r="B239" s="47"/>
-      <c r="C239" s="47"/>
+      <c r="B239" s="46"/>
+      <c r="C239" s="46"/>
       <c r="D239" s="22" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="49"/>
-      <c r="B240" s="47"/>
-      <c r="C240" s="47"/>
+      <c r="B240" s="46"/>
+      <c r="C240" s="46"/>
       <c r="D240" s="22" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="49"/>
-      <c r="B241" s="46"/>
-      <c r="C241" s="46"/>
+      <c r="B241" s="47"/>
+      <c r="C241" s="47"/>
       <c r="D241" s="22" t="s">
         <v>1420</v>
       </c>
@@ -26500,7 +26500,7 @@
     </row>
     <row r="248" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="49"/>
-      <c r="B248" s="46"/>
+      <c r="B248" s="47"/>
       <c r="C248" s="22" t="s">
         <v>1430</v>
       </c>
@@ -26522,8 +26522,8 @@
     </row>
     <row r="250" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="49"/>
-      <c r="B250" s="46"/>
-      <c r="C250" s="46"/>
+      <c r="B250" s="47"/>
+      <c r="C250" s="47"/>
       <c r="D250" s="22" t="s">
         <v>1435</v>
       </c>
@@ -26542,16 +26542,16 @@
     </row>
     <row r="252" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="49"/>
-      <c r="B252" s="47"/>
-      <c r="C252" s="47"/>
+      <c r="B252" s="46"/>
+      <c r="C252" s="46"/>
       <c r="D252" s="22" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="49"/>
-      <c r="B253" s="46"/>
-      <c r="C253" s="46"/>
+      <c r="B253" s="47"/>
+      <c r="C253" s="47"/>
       <c r="D253" s="22" t="s">
         <v>1439</v>
       </c>
@@ -26642,7 +26642,7 @@
     </row>
     <row r="261" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="49"/>
-      <c r="B261" s="46"/>
+      <c r="B261" s="47"/>
       <c r="C261" s="22" t="s">
         <v>1446</v>
       </c>
@@ -26664,8 +26664,8 @@
     </row>
     <row r="263" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="49"/>
-      <c r="B263" s="46"/>
-      <c r="C263" s="46"/>
+      <c r="B263" s="47"/>
+      <c r="C263" s="47"/>
       <c r="D263" s="22" t="s">
         <v>1451</v>
       </c>
@@ -26732,8 +26732,8 @@
     </row>
     <row r="269" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="50"/>
-      <c r="B269" s="46"/>
-      <c r="C269" s="46"/>
+      <c r="B269" s="47"/>
+      <c r="C269" s="47"/>
       <c r="D269" s="22" t="s">
         <v>1461</v>
       </c>
@@ -26754,8 +26754,8 @@
     </row>
     <row r="271" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="49"/>
-      <c r="B271" s="46"/>
-      <c r="C271" s="46"/>
+      <c r="B271" s="47"/>
+      <c r="C271" s="47"/>
       <c r="D271" s="22" t="s">
         <v>1464</v>
       </c>
@@ -26826,7 +26826,7 @@
     </row>
     <row r="277" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="49"/>
-      <c r="B277" s="46"/>
+      <c r="B277" s="47"/>
       <c r="C277" s="22" t="s">
         <v>1471</v>
       </c>
@@ -26848,8 +26848,8 @@
     </row>
     <row r="279" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="49"/>
-      <c r="B279" s="46"/>
-      <c r="C279" s="46"/>
+      <c r="B279" s="47"/>
+      <c r="C279" s="47"/>
       <c r="D279" s="22" t="s">
         <v>1474</v>
       </c>
@@ -26880,16 +26880,16 @@
     </row>
     <row r="282" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="49"/>
-      <c r="B282" s="47"/>
-      <c r="C282" s="47"/>
+      <c r="B282" s="46"/>
+      <c r="C282" s="46"/>
       <c r="D282" s="22" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="49"/>
-      <c r="B283" s="46"/>
-      <c r="C283" s="46"/>
+      <c r="B283" s="47"/>
+      <c r="C283" s="47"/>
       <c r="D283" s="22" t="s">
         <v>1479</v>
       </c>
@@ -26922,24 +26922,24 @@
     </row>
     <row r="286" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="49"/>
-      <c r="B286" s="47"/>
-      <c r="C286" s="47"/>
+      <c r="B286" s="46"/>
+      <c r="C286" s="46"/>
       <c r="D286" s="22" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="49"/>
-      <c r="B287" s="47"/>
-      <c r="C287" s="47"/>
+      <c r="B287" s="46"/>
+      <c r="C287" s="46"/>
       <c r="D287" s="22" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="49"/>
-      <c r="B288" s="46"/>
-      <c r="C288" s="46"/>
+      <c r="B288" s="47"/>
+      <c r="C288" s="47"/>
       <c r="D288" s="22" t="s">
         <v>1485</v>
       </c>
@@ -26958,16 +26958,16 @@
     </row>
     <row r="290" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="49"/>
-      <c r="B290" s="47"/>
-      <c r="C290" s="47"/>
+      <c r="B290" s="46"/>
+      <c r="C290" s="46"/>
       <c r="D290" s="22" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="49"/>
-      <c r="B291" s="46"/>
-      <c r="C291" s="46"/>
+      <c r="B291" s="47"/>
+      <c r="C291" s="47"/>
       <c r="D291" s="22" t="s">
         <v>1489</v>
       </c>
@@ -27022,8 +27022,8 @@
     </row>
     <row r="296" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="49"/>
-      <c r="B296" s="46"/>
-      <c r="C296" s="46"/>
+      <c r="B296" s="47"/>
+      <c r="C296" s="47"/>
       <c r="D296" s="22" t="s">
         <v>1495</v>
       </c>
@@ -27068,8 +27068,8 @@
     </row>
     <row r="300" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="50"/>
-      <c r="B300" s="46"/>
-      <c r="C300" s="46"/>
+      <c r="B300" s="47"/>
+      <c r="C300" s="47"/>
       <c r="D300" s="22" t="s">
         <v>1502</v>
       </c>
@@ -27090,24 +27090,24 @@
     </row>
     <row r="302" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="49"/>
-      <c r="B302" s="47"/>
-      <c r="C302" s="47"/>
+      <c r="B302" s="46"/>
+      <c r="C302" s="46"/>
       <c r="D302" s="22" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="49"/>
-      <c r="B303" s="47"/>
-      <c r="C303" s="47"/>
+      <c r="B303" s="46"/>
+      <c r="C303" s="46"/>
       <c r="D303" s="22" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="50"/>
-      <c r="B304" s="46"/>
-      <c r="C304" s="46"/>
+      <c r="B304" s="47"/>
+      <c r="C304" s="47"/>
       <c r="D304" s="22" t="s">
         <v>1507</v>
       </c>
@@ -27128,16 +27128,16 @@
     </row>
     <row r="306" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="49"/>
-      <c r="B306" s="47"/>
-      <c r="C306" s="47"/>
+      <c r="B306" s="46"/>
+      <c r="C306" s="46"/>
       <c r="D306" s="22" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="50"/>
-      <c r="B307" s="46"/>
-      <c r="C307" s="46"/>
+      <c r="B307" s="47"/>
+      <c r="C307" s="47"/>
       <c r="D307" s="22" t="s">
         <v>1511</v>
       </c>
@@ -27184,16 +27184,16 @@
     </row>
     <row r="311" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="49"/>
-      <c r="B311" s="47"/>
-      <c r="C311" s="47"/>
+      <c r="B311" s="46"/>
+      <c r="C311" s="46"/>
       <c r="D311" s="22" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="49"/>
-      <c r="B312" s="46"/>
-      <c r="C312" s="46"/>
+      <c r="B312" s="47"/>
+      <c r="C312" s="47"/>
       <c r="D312" s="22" t="s">
         <v>1517</v>
       </c>
@@ -27224,16 +27224,16 @@
     </row>
     <row r="315" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="49"/>
-      <c r="B315" s="47"/>
-      <c r="C315" s="47"/>
+      <c r="B315" s="46"/>
+      <c r="C315" s="46"/>
       <c r="D315" s="22" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="49"/>
-      <c r="B316" s="46"/>
-      <c r="C316" s="46"/>
+      <c r="B316" s="47"/>
+      <c r="C316" s="47"/>
       <c r="D316" s="22" t="s">
         <v>1522</v>
       </c>
@@ -27252,32 +27252,32 @@
     </row>
     <row r="318" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="49"/>
-      <c r="B318" s="47"/>
-      <c r="C318" s="47"/>
+      <c r="B318" s="46"/>
+      <c r="C318" s="46"/>
       <c r="D318" s="22" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="49"/>
-      <c r="B319" s="47"/>
-      <c r="C319" s="47"/>
+      <c r="B319" s="46"/>
+      <c r="C319" s="46"/>
       <c r="D319" s="22" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="49"/>
-      <c r="B320" s="47"/>
-      <c r="C320" s="47"/>
+      <c r="B320" s="46"/>
+      <c r="C320" s="46"/>
       <c r="D320" s="22" t="s">
         <v>1527</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="49"/>
-      <c r="B321" s="46"/>
-      <c r="C321" s="46"/>
+      <c r="B321" s="47"/>
+      <c r="C321" s="47"/>
       <c r="D321" s="22" t="s">
         <v>1528</v>
       </c>
@@ -27308,16 +27308,16 @@
     </row>
     <row r="324" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="49"/>
-      <c r="B324" s="47"/>
-      <c r="C324" s="47"/>
+      <c r="B324" s="46"/>
+      <c r="C324" s="46"/>
       <c r="D324" s="22" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="49"/>
-      <c r="B325" s="46"/>
-      <c r="C325" s="46"/>
+      <c r="B325" s="47"/>
+      <c r="C325" s="47"/>
       <c r="D325" s="22" t="s">
         <v>1534</v>
       </c>
@@ -27336,8 +27336,8 @@
     </row>
     <row r="327" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="49"/>
-      <c r="B327" s="46"/>
-      <c r="C327" s="46"/>
+      <c r="B327" s="47"/>
+      <c r="C327" s="47"/>
       <c r="D327" s="22" t="s">
         <v>1538</v>
       </c>
@@ -27356,8 +27356,8 @@
     </row>
     <row r="329" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="49"/>
-      <c r="B329" s="46"/>
-      <c r="C329" s="46"/>
+      <c r="B329" s="47"/>
+      <c r="C329" s="47"/>
       <c r="D329" s="22" t="s">
         <v>1542</v>
       </c>
@@ -27376,8 +27376,8 @@
     </row>
     <row r="331" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="50"/>
-      <c r="B331" s="46"/>
-      <c r="C331" s="46"/>
+      <c r="B331" s="47"/>
+      <c r="C331" s="47"/>
       <c r="D331" s="22" t="s">
         <v>1546</v>
       </c>
@@ -27400,8 +27400,8 @@
       <c r="A333" s="29" t="s">
         <v>1547</v>
       </c>
-      <c r="B333" s="46"/>
-      <c r="C333" s="46"/>
+      <c r="B333" s="47"/>
+      <c r="C333" s="47"/>
       <c r="D333" s="22" t="s">
         <v>1551</v>
       </c>
@@ -27434,8 +27434,8 @@
     </row>
     <row r="336" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="30"/>
-      <c r="B336" s="46"/>
-      <c r="C336" s="46"/>
+      <c r="B336" s="47"/>
+      <c r="C336" s="47"/>
       <c r="D336" s="22" t="s">
         <v>1555</v>
       </c>
@@ -27478,72 +27478,72 @@
     </row>
     <row r="340" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="30"/>
-      <c r="B340" s="47"/>
-      <c r="C340" s="47"/>
+      <c r="B340" s="46"/>
+      <c r="C340" s="46"/>
       <c r="D340" s="22" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="30"/>
-      <c r="B341" s="47"/>
-      <c r="C341" s="47"/>
+      <c r="B341" s="46"/>
+      <c r="C341" s="46"/>
       <c r="D341" s="22" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="30"/>
-      <c r="B342" s="47"/>
-      <c r="C342" s="47"/>
+      <c r="B342" s="46"/>
+      <c r="C342" s="46"/>
       <c r="D342" s="22" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="30"/>
-      <c r="B343" s="47"/>
-      <c r="C343" s="47"/>
+      <c r="B343" s="46"/>
+      <c r="C343" s="46"/>
       <c r="D343" s="22" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="30"/>
-      <c r="B344" s="47"/>
-      <c r="C344" s="47"/>
+      <c r="B344" s="46"/>
+      <c r="C344" s="46"/>
       <c r="D344" s="22" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="30"/>
-      <c r="B345" s="47"/>
-      <c r="C345" s="47"/>
+      <c r="B345" s="46"/>
+      <c r="C345" s="46"/>
       <c r="D345" s="22" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="30"/>
-      <c r="B346" s="47"/>
-      <c r="C346" s="47"/>
+      <c r="B346" s="46"/>
+      <c r="C346" s="46"/>
       <c r="D346" s="22" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="30"/>
-      <c r="B347" s="47"/>
-      <c r="C347" s="47"/>
+      <c r="B347" s="46"/>
+      <c r="C347" s="46"/>
       <c r="D347" s="22" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="30"/>
-      <c r="B348" s="46"/>
-      <c r="C348" s="46"/>
+      <c r="B348" s="47"/>
+      <c r="C348" s="47"/>
       <c r="D348" s="22" t="s">
         <v>1568</v>
       </c>
@@ -27562,24 +27562,24 @@
     </row>
     <row r="350" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="30"/>
-      <c r="B350" s="47"/>
-      <c r="C350" s="47"/>
+      <c r="B350" s="46"/>
+      <c r="C350" s="46"/>
       <c r="D350" s="22" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="30"/>
-      <c r="B351" s="47"/>
-      <c r="C351" s="47"/>
+      <c r="B351" s="46"/>
+      <c r="C351" s="46"/>
       <c r="D351" s="22" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="30"/>
-      <c r="B352" s="46"/>
-      <c r="C352" s="46"/>
+      <c r="B352" s="47"/>
+      <c r="C352" s="47"/>
       <c r="D352" s="22" t="s">
         <v>1573</v>
       </c>
@@ -27598,64 +27598,64 @@
     </row>
     <row r="354" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="30"/>
-      <c r="B354" s="47"/>
-      <c r="C354" s="47"/>
+      <c r="B354" s="46"/>
+      <c r="C354" s="46"/>
       <c r="D354" s="22" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="30"/>
-      <c r="B355" s="47"/>
-      <c r="C355" s="47"/>
+      <c r="B355" s="46"/>
+      <c r="C355" s="46"/>
       <c r="D355" s="22" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="30"/>
-      <c r="B356" s="47"/>
-      <c r="C356" s="47"/>
+      <c r="B356" s="46"/>
+      <c r="C356" s="46"/>
       <c r="D356" s="22" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="30"/>
-      <c r="B357" s="47"/>
-      <c r="C357" s="47"/>
+      <c r="B357" s="46"/>
+      <c r="C357" s="46"/>
       <c r="D357" s="22" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="30"/>
-      <c r="B358" s="47"/>
-      <c r="C358" s="47"/>
+      <c r="B358" s="46"/>
+      <c r="C358" s="46"/>
       <c r="D358" s="22" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="30"/>
-      <c r="B359" s="47"/>
-      <c r="C359" s="47"/>
+      <c r="B359" s="46"/>
+      <c r="C359" s="46"/>
       <c r="D359" s="22" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="30"/>
-      <c r="B360" s="47"/>
-      <c r="C360" s="47"/>
+      <c r="B360" s="46"/>
+      <c r="C360" s="46"/>
       <c r="D360" s="22" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="30"/>
-      <c r="B361" s="46"/>
-      <c r="C361" s="46"/>
+      <c r="B361" s="47"/>
+      <c r="C361" s="47"/>
       <c r="D361" s="22" t="s">
         <v>1583</v>
       </c>
@@ -27674,64 +27674,64 @@
     </row>
     <row r="363" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="30"/>
-      <c r="B363" s="47"/>
-      <c r="C363" s="47"/>
+      <c r="B363" s="46"/>
+      <c r="C363" s="46"/>
       <c r="D363" s="22" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="30"/>
-      <c r="B364" s="47"/>
-      <c r="C364" s="47"/>
+      <c r="B364" s="46"/>
+      <c r="C364" s="46"/>
       <c r="D364" s="22" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="30"/>
-      <c r="B365" s="47"/>
-      <c r="C365" s="47"/>
+      <c r="B365" s="46"/>
+      <c r="C365" s="46"/>
       <c r="D365" s="22" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="30"/>
-      <c r="B366" s="47"/>
-      <c r="C366" s="47"/>
+      <c r="B366" s="46"/>
+      <c r="C366" s="46"/>
       <c r="D366" s="22" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="30"/>
-      <c r="B367" s="47"/>
-      <c r="C367" s="47"/>
+      <c r="B367" s="46"/>
+      <c r="C367" s="46"/>
       <c r="D367" s="22" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="30"/>
-      <c r="B368" s="47"/>
-      <c r="C368" s="47"/>
+      <c r="B368" s="46"/>
+      <c r="C368" s="46"/>
       <c r="D368" s="22" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="30"/>
-      <c r="B369" s="47"/>
-      <c r="C369" s="47"/>
+      <c r="B369" s="46"/>
+      <c r="C369" s="46"/>
       <c r="D369" s="22" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="30"/>
-      <c r="B370" s="46"/>
-      <c r="C370" s="46"/>
+      <c r="B370" s="47"/>
+      <c r="C370" s="47"/>
       <c r="D370" s="22" t="s">
         <v>1593</v>
       </c>
@@ -27762,56 +27762,56 @@
     </row>
     <row r="373" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="30"/>
-      <c r="B373" s="47"/>
-      <c r="C373" s="47"/>
+      <c r="B373" s="46"/>
+      <c r="C373" s="46"/>
       <c r="D373" s="22" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="30"/>
-      <c r="B374" s="47"/>
-      <c r="C374" s="47"/>
+      <c r="B374" s="46"/>
+      <c r="C374" s="46"/>
       <c r="D374" s="22" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A375" s="30"/>
-      <c r="B375" s="47"/>
-      <c r="C375" s="47"/>
+      <c r="B375" s="46"/>
+      <c r="C375" s="46"/>
       <c r="D375" s="23" t="s">
         <v>1599</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="30"/>
-      <c r="B376" s="47"/>
-      <c r="C376" s="47"/>
+      <c r="B376" s="46"/>
+      <c r="C376" s="46"/>
       <c r="D376" s="22" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="30"/>
-      <c r="B377" s="47"/>
-      <c r="C377" s="47"/>
+      <c r="B377" s="46"/>
+      <c r="C377" s="46"/>
       <c r="D377" s="22" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="30"/>
-      <c r="B378" s="47"/>
-      <c r="C378" s="47"/>
+      <c r="B378" s="46"/>
+      <c r="C378" s="46"/>
       <c r="D378" s="22" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="30"/>
-      <c r="B379" s="46"/>
-      <c r="C379" s="46"/>
+      <c r="B379" s="47"/>
+      <c r="C379" s="47"/>
       <c r="D379" s="22" t="s">
         <v>1603</v>
       </c>
@@ -27830,48 +27830,48 @@
     </row>
     <row r="381" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="30"/>
-      <c r="B381" s="47"/>
-      <c r="C381" s="47"/>
+      <c r="B381" s="46"/>
+      <c r="C381" s="46"/>
       <c r="D381" s="22" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="30"/>
-      <c r="B382" s="47"/>
-      <c r="C382" s="47"/>
+      <c r="B382" s="46"/>
+      <c r="C382" s="46"/>
       <c r="D382" s="22" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="30"/>
-      <c r="B383" s="47"/>
-      <c r="C383" s="47"/>
+      <c r="B383" s="46"/>
+      <c r="C383" s="46"/>
       <c r="D383" s="22" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="30"/>
-      <c r="B384" s="47"/>
-      <c r="C384" s="47"/>
+      <c r="B384" s="46"/>
+      <c r="C384" s="46"/>
       <c r="D384" s="22" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="30"/>
-      <c r="B385" s="47"/>
-      <c r="C385" s="47"/>
+      <c r="B385" s="46"/>
+      <c r="C385" s="46"/>
       <c r="D385" s="22" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="30"/>
-      <c r="B386" s="46"/>
-      <c r="C386" s="46"/>
+      <c r="B386" s="47"/>
+      <c r="C386" s="47"/>
       <c r="D386" s="22" t="s">
         <v>1611</v>
       </c>
@@ -27890,8 +27890,8 @@
     </row>
     <row r="388" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="30"/>
-      <c r="B388" s="46"/>
-      <c r="C388" s="46"/>
+      <c r="B388" s="47"/>
+      <c r="C388" s="47"/>
       <c r="D388" s="22" t="s">
         <v>1614</v>
       </c>
@@ -27910,56 +27910,56 @@
     </row>
     <row r="390" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="30"/>
-      <c r="B390" s="47"/>
-      <c r="C390" s="47"/>
+      <c r="B390" s="46"/>
+      <c r="C390" s="46"/>
       <c r="D390" s="22" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="30"/>
-      <c r="B391" s="47"/>
-      <c r="C391" s="47"/>
+      <c r="B391" s="46"/>
+      <c r="C391" s="46"/>
       <c r="D391" s="22" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A392" s="30"/>
-      <c r="B392" s="47"/>
-      <c r="C392" s="47"/>
+      <c r="B392" s="46"/>
+      <c r="C392" s="46"/>
       <c r="D392" s="23" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="30"/>
-      <c r="B393" s="47"/>
-      <c r="C393" s="47"/>
+      <c r="B393" s="46"/>
+      <c r="C393" s="46"/>
       <c r="D393" s="22" t="s">
         <v>1620</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="30"/>
-      <c r="B394" s="47"/>
-      <c r="C394" s="47"/>
+      <c r="B394" s="46"/>
+      <c r="C394" s="46"/>
       <c r="D394" s="22" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="30"/>
-      <c r="B395" s="47"/>
-      <c r="C395" s="47"/>
+      <c r="B395" s="46"/>
+      <c r="C395" s="46"/>
       <c r="D395" s="22" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="30"/>
-      <c r="B396" s="46"/>
-      <c r="C396" s="46"/>
+      <c r="B396" s="47"/>
+      <c r="C396" s="47"/>
       <c r="D396" s="22" t="s">
         <v>1623</v>
       </c>
@@ -27978,40 +27978,40 @@
     </row>
     <row r="398" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="30"/>
-      <c r="B398" s="47"/>
-      <c r="C398" s="47"/>
+      <c r="B398" s="46"/>
+      <c r="C398" s="46"/>
       <c r="D398" s="22" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="30"/>
-      <c r="B399" s="47"/>
-      <c r="C399" s="47"/>
+      <c r="B399" s="46"/>
+      <c r="C399" s="46"/>
       <c r="D399" s="22" t="s">
         <v>1627</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="30"/>
-      <c r="B400" s="47"/>
-      <c r="C400" s="47"/>
+      <c r="B400" s="46"/>
+      <c r="C400" s="46"/>
       <c r="D400" s="22" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A401" s="30"/>
-      <c r="B401" s="47"/>
-      <c r="C401" s="47"/>
+      <c r="B401" s="46"/>
+      <c r="C401" s="46"/>
       <c r="D401" s="23" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="30"/>
-      <c r="B402" s="46"/>
-      <c r="C402" s="46"/>
+      <c r="B402" s="47"/>
+      <c r="C402" s="47"/>
       <c r="D402" s="22" t="s">
         <v>1620</v>
       </c>
@@ -28030,72 +28030,72 @@
     </row>
     <row r="404" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="30"/>
-      <c r="B404" s="47"/>
-      <c r="C404" s="47"/>
+      <c r="B404" s="46"/>
+      <c r="C404" s="46"/>
       <c r="D404" s="22" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="30"/>
-      <c r="B405" s="47"/>
-      <c r="C405" s="47"/>
+      <c r="B405" s="46"/>
+      <c r="C405" s="46"/>
       <c r="D405" s="22" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="30"/>
-      <c r="B406" s="47"/>
-      <c r="C406" s="47"/>
+      <c r="B406" s="46"/>
+      <c r="C406" s="46"/>
       <c r="D406" s="22" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="30"/>
-      <c r="B407" s="47"/>
-      <c r="C407" s="47"/>
+      <c r="B407" s="46"/>
+      <c r="C407" s="46"/>
       <c r="D407" s="22" t="s">
         <v>1635</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A408" s="30"/>
-      <c r="B408" s="47"/>
-      <c r="C408" s="47"/>
+      <c r="B408" s="46"/>
+      <c r="C408" s="46"/>
       <c r="D408" s="23" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="30"/>
-      <c r="B409" s="47"/>
-      <c r="C409" s="47"/>
+      <c r="B409" s="46"/>
+      <c r="C409" s="46"/>
       <c r="D409" s="22" t="s">
         <v>1620</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="30"/>
-      <c r="B410" s="47"/>
-      <c r="C410" s="47"/>
+      <c r="B410" s="46"/>
+      <c r="C410" s="46"/>
       <c r="D410" s="22" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="30"/>
-      <c r="B411" s="47"/>
-      <c r="C411" s="47"/>
+      <c r="B411" s="46"/>
+      <c r="C411" s="46"/>
       <c r="D411" s="22" t="s">
         <v>1638</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="30"/>
-      <c r="B412" s="46"/>
-      <c r="C412" s="46"/>
+      <c r="B412" s="47"/>
+      <c r="C412" s="47"/>
       <c r="D412" s="22" t="s">
         <v>1639</v>
       </c>
@@ -28114,32 +28114,32 @@
     </row>
     <row r="414" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="30"/>
-      <c r="B414" s="47"/>
-      <c r="C414" s="47"/>
+      <c r="B414" s="46"/>
+      <c r="C414" s="46"/>
       <c r="D414" s="22" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="30"/>
-      <c r="B415" s="47"/>
-      <c r="C415" s="47"/>
+      <c r="B415" s="46"/>
+      <c r="C415" s="46"/>
       <c r="D415" s="22" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="30"/>
-      <c r="B416" s="47"/>
-      <c r="C416" s="47"/>
+      <c r="B416" s="46"/>
+      <c r="C416" s="46"/>
       <c r="D416" s="22" t="s">
         <v>1644</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="30"/>
-      <c r="B417" s="46"/>
-      <c r="C417" s="46"/>
+      <c r="B417" s="47"/>
+      <c r="C417" s="47"/>
       <c r="D417" s="22" t="s">
         <v>1645</v>
       </c>
@@ -28158,8 +28158,8 @@
     </row>
     <row r="419" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A419" s="30"/>
-      <c r="B419" s="46"/>
-      <c r="C419" s="46"/>
+      <c r="B419" s="47"/>
+      <c r="C419" s="47"/>
       <c r="D419" s="22" t="s">
         <v>1648</v>
       </c>
@@ -28178,40 +28178,40 @@
     </row>
     <row r="421" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="30"/>
-      <c r="B421" s="47"/>
-      <c r="C421" s="47"/>
+      <c r="B421" s="46"/>
+      <c r="C421" s="46"/>
       <c r="D421" s="22" t="s">
         <v>1651</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="30"/>
-      <c r="B422" s="47"/>
-      <c r="C422" s="47"/>
+      <c r="B422" s="46"/>
+      <c r="C422" s="46"/>
       <c r="D422" s="22" t="s">
         <v>1652</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="30"/>
-      <c r="B423" s="47"/>
-      <c r="C423" s="47"/>
+      <c r="B423" s="46"/>
+      <c r="C423" s="46"/>
       <c r="D423" s="22" t="s">
         <v>1653</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="30"/>
-      <c r="B424" s="47"/>
-      <c r="C424" s="47"/>
+      <c r="B424" s="46"/>
+      <c r="C424" s="46"/>
       <c r="D424" s="22" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425" s="30"/>
-      <c r="B425" s="46"/>
-      <c r="C425" s="46"/>
+      <c r="B425" s="47"/>
+      <c r="C425" s="47"/>
       <c r="D425" s="22" t="s">
         <v>1655</v>
       </c>
@@ -28230,8 +28230,8 @@
     </row>
     <row r="427" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="30"/>
-      <c r="B427" s="46"/>
-      <c r="C427" s="46"/>
+      <c r="B427" s="47"/>
+      <c r="C427" s="47"/>
       <c r="D427" s="22" t="s">
         <v>1659</v>
       </c>
@@ -28250,16 +28250,16 @@
     </row>
     <row r="429" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="30"/>
-      <c r="B429" s="47"/>
-      <c r="C429" s="47"/>
+      <c r="B429" s="46"/>
+      <c r="C429" s="46"/>
       <c r="D429" s="22" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="30"/>
-      <c r="B430" s="46"/>
-      <c r="C430" s="46"/>
+      <c r="B430" s="47"/>
+      <c r="C430" s="47"/>
       <c r="D430" s="22" t="s">
         <v>1664</v>
       </c>
@@ -28276,18 +28276,18 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="30"/>
-      <c r="B432" s="47"/>
-      <c r="C432" s="47"/>
+      <c r="B432" s="46"/>
+      <c r="C432" s="46"/>
       <c r="D432" s="22" t="s">
         <v>1668</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="31"/>
-      <c r="B433" s="46"/>
-      <c r="C433" s="46"/>
+      <c r="B433" s="47"/>
+      <c r="C433" s="47"/>
       <c r="D433" s="22" t="s">
         <v>1669</v>
       </c>
@@ -28308,16 +28308,16 @@
     </row>
     <row r="435" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A435" s="49"/>
-      <c r="B435" s="47"/>
-      <c r="C435" s="47"/>
+      <c r="B435" s="46"/>
+      <c r="C435" s="46"/>
       <c r="D435" s="22" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A436" s="49"/>
-      <c r="B436" s="46"/>
-      <c r="C436" s="46"/>
+      <c r="B436" s="47"/>
+      <c r="C436" s="47"/>
       <c r="D436" s="22" t="s">
         <v>1673</v>
       </c>
@@ -28372,8 +28372,8 @@
     </row>
     <row r="441" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="50"/>
-      <c r="B441" s="46"/>
-      <c r="C441" s="46"/>
+      <c r="B441" s="47"/>
+      <c r="C441" s="47"/>
       <c r="D441" s="22" t="s">
         <v>1678</v>
       </c>
@@ -28406,8 +28406,8 @@
     </row>
     <row r="444" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="49"/>
-      <c r="B444" s="46"/>
-      <c r="C444" s="46"/>
+      <c r="B444" s="47"/>
+      <c r="C444" s="47"/>
       <c r="D444" s="22" t="s">
         <v>1682</v>
       </c>
@@ -28438,8 +28438,8 @@
     </row>
     <row r="447" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="49"/>
-      <c r="B447" s="46"/>
-      <c r="C447" s="46"/>
+      <c r="B447" s="47"/>
+      <c r="C447" s="47"/>
       <c r="D447" s="22" t="s">
         <v>1686</v>
       </c>
@@ -28482,8 +28482,8 @@
     </row>
     <row r="451" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="49"/>
-      <c r="B451" s="46"/>
-      <c r="C451" s="46"/>
+      <c r="B451" s="47"/>
+      <c r="C451" s="47"/>
       <c r="D451" s="22" t="s">
         <v>1691</v>
       </c>
@@ -28526,32 +28526,32 @@
     </row>
     <row r="455" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A455" s="49"/>
-      <c r="B455" s="47"/>
-      <c r="C455" s="47"/>
+      <c r="B455" s="46"/>
+      <c r="C455" s="46"/>
       <c r="D455" s="22" t="s">
         <v>1696</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="49"/>
-      <c r="B456" s="47"/>
-      <c r="C456" s="47"/>
+      <c r="B456" s="46"/>
+      <c r="C456" s="46"/>
       <c r="D456" s="22" t="s">
         <v>1697</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="49"/>
-      <c r="B457" s="47"/>
-      <c r="C457" s="47"/>
+      <c r="B457" s="46"/>
+      <c r="C457" s="46"/>
       <c r="D457" s="22" t="s">
         <v>1698</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="49"/>
-      <c r="B458" s="46"/>
-      <c r="C458" s="46"/>
+      <c r="B458" s="47"/>
+      <c r="C458" s="47"/>
       <c r="D458" s="22" t="s">
         <v>1699</v>
       </c>
@@ -28642,16 +28642,16 @@
     </row>
     <row r="466" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="49"/>
-      <c r="B466" s="47"/>
-      <c r="C466" s="47"/>
+      <c r="B466" s="46"/>
+      <c r="C466" s="46"/>
       <c r="D466" s="22" t="s">
         <v>1711</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="49"/>
-      <c r="B467" s="46"/>
-      <c r="C467" s="46"/>
+      <c r="B467" s="47"/>
+      <c r="C467" s="47"/>
       <c r="D467" s="22" t="s">
         <v>1712</v>
       </c>
@@ -28686,8 +28686,8 @@
       <c r="A470" s="29" t="s">
         <v>1715</v>
       </c>
-      <c r="B470" s="46"/>
-      <c r="C470" s="46"/>
+      <c r="B470" s="47"/>
+      <c r="C470" s="47"/>
       <c r="D470" s="22" t="s">
         <v>1718</v>
       </c>
@@ -28706,8 +28706,8 @@
     </row>
     <row r="472" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="30"/>
-      <c r="B472" s="46"/>
-      <c r="C472" s="46"/>
+      <c r="B472" s="47"/>
+      <c r="C472" s="47"/>
       <c r="D472" s="22" t="s">
         <v>1721</v>
       </c>
@@ -28726,24 +28726,24 @@
     </row>
     <row r="474" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="30"/>
-      <c r="B474" s="47"/>
-      <c r="C474" s="47"/>
+      <c r="B474" s="46"/>
+      <c r="C474" s="46"/>
       <c r="D474" s="22" t="s">
         <v>1724</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="30"/>
-      <c r="B475" s="47"/>
-      <c r="C475" s="47"/>
+      <c r="B475" s="46"/>
+      <c r="C475" s="46"/>
       <c r="D475" s="22" t="s">
         <v>1725</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="30"/>
-      <c r="B476" s="46"/>
-      <c r="C476" s="46"/>
+      <c r="B476" s="47"/>
+      <c r="C476" s="47"/>
       <c r="D476" s="22" t="s">
         <v>1726</v>
       </c>
@@ -28762,24 +28762,24 @@
     </row>
     <row r="478" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="30"/>
-      <c r="B478" s="47"/>
-      <c r="C478" s="47"/>
+      <c r="B478" s="46"/>
+      <c r="C478" s="46"/>
       <c r="D478" s="22" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A479" s="30"/>
-      <c r="B479" s="47"/>
-      <c r="C479" s="47"/>
+      <c r="B479" s="46"/>
+      <c r="C479" s="46"/>
       <c r="D479" s="23" t="s">
         <v>1730</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="30"/>
-      <c r="B480" s="46"/>
-      <c r="C480" s="46"/>
+      <c r="B480" s="47"/>
+      <c r="C480" s="47"/>
       <c r="D480" s="22" t="s">
         <v>1731</v>
       </c>
@@ -28798,16 +28798,16 @@
     </row>
     <row r="482" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="30"/>
-      <c r="B482" s="47"/>
-      <c r="C482" s="47"/>
+      <c r="B482" s="46"/>
+      <c r="C482" s="46"/>
       <c r="D482" s="22" t="s">
         <v>1734</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="30"/>
-      <c r="B483" s="46"/>
-      <c r="C483" s="46"/>
+      <c r="B483" s="47"/>
+      <c r="C483" s="47"/>
       <c r="D483" s="22" t="s">
         <v>1735</v>
       </c>
@@ -28850,8 +28850,8 @@
     </row>
     <row r="487" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="30"/>
-      <c r="B487" s="46"/>
-      <c r="C487" s="46"/>
+      <c r="B487" s="47"/>
+      <c r="C487" s="47"/>
       <c r="D487" s="22" t="s">
         <v>1740</v>
       </c>
@@ -28870,8 +28870,8 @@
     </row>
     <row r="489" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="30"/>
-      <c r="B489" s="46"/>
-      <c r="C489" s="46"/>
+      <c r="B489" s="47"/>
+      <c r="C489" s="47"/>
       <c r="D489" s="22" t="s">
         <v>1743</v>
       </c>
@@ -28890,16 +28890,16 @@
     </row>
     <row r="491" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="30"/>
-      <c r="B491" s="47"/>
-      <c r="C491" s="47"/>
+      <c r="B491" s="46"/>
+      <c r="C491" s="46"/>
       <c r="D491" s="22" t="s">
         <v>1746</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="30"/>
-      <c r="B492" s="46"/>
-      <c r="C492" s="46"/>
+      <c r="B492" s="47"/>
+      <c r="C492" s="47"/>
       <c r="D492" s="22" t="s">
         <v>1747</v>
       </c>
@@ -28918,40 +28918,40 @@
     </row>
     <row r="494" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="30"/>
-      <c r="B494" s="47"/>
-      <c r="C494" s="47"/>
+      <c r="B494" s="46"/>
+      <c r="C494" s="46"/>
       <c r="D494" s="22" t="s">
         <v>1750</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="30"/>
-      <c r="B495" s="47"/>
-      <c r="C495" s="47"/>
+      <c r="B495" s="46"/>
+      <c r="C495" s="46"/>
       <c r="D495" s="22" t="s">
         <v>1751</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="30"/>
-      <c r="B496" s="47"/>
-      <c r="C496" s="47"/>
+      <c r="B496" s="46"/>
+      <c r="C496" s="46"/>
       <c r="D496" s="22" t="s">
         <v>1752</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="30"/>
-      <c r="B497" s="47"/>
-      <c r="C497" s="47"/>
+      <c r="B497" s="46"/>
+      <c r="C497" s="46"/>
       <c r="D497" s="22" t="s">
         <v>1753</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="30"/>
-      <c r="B498" s="46"/>
-      <c r="C498" s="46"/>
+      <c r="B498" s="47"/>
+      <c r="C498" s="47"/>
       <c r="D498" s="22" t="s">
         <v>1754</v>
       </c>
@@ -28970,16 +28970,16 @@
     </row>
     <row r="500" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="30"/>
-      <c r="B500" s="47"/>
-      <c r="C500" s="47"/>
+      <c r="B500" s="46"/>
+      <c r="C500" s="46"/>
       <c r="D500" s="22" t="s">
         <v>1757</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A501" s="30"/>
-      <c r="B501" s="46"/>
-      <c r="C501" s="46"/>
+      <c r="B501" s="47"/>
+      <c r="C501" s="47"/>
       <c r="D501" s="22" t="s">
         <v>1758</v>
       </c>
@@ -29024,8 +29024,8 @@
     </row>
     <row r="505" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A505" s="49"/>
-      <c r="B505" s="46"/>
-      <c r="C505" s="46"/>
+      <c r="B505" s="47"/>
+      <c r="C505" s="47"/>
       <c r="D505" s="22" t="s">
         <v>1765</v>
       </c>
@@ -29044,24 +29044,24 @@
     </row>
     <row r="507" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A507" s="49"/>
-      <c r="B507" s="47"/>
-      <c r="C507" s="47"/>
+      <c r="B507" s="46"/>
+      <c r="C507" s="46"/>
       <c r="D507" s="22" t="s">
         <v>1768</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="49"/>
-      <c r="B508" s="47"/>
-      <c r="C508" s="47"/>
+      <c r="B508" s="46"/>
+      <c r="C508" s="46"/>
       <c r="D508" s="22" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A509" s="49"/>
-      <c r="B509" s="46"/>
-      <c r="C509" s="46"/>
+      <c r="B509" s="47"/>
+      <c r="C509" s="47"/>
       <c r="D509" s="22" t="s">
         <v>1770</v>
       </c>
@@ -29080,8 +29080,8 @@
     </row>
     <row r="511" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A511" s="50"/>
-      <c r="B511" s="46"/>
-      <c r="C511" s="46"/>
+      <c r="B511" s="47"/>
+      <c r="C511" s="47"/>
       <c r="D511" s="22" t="s">
         <v>1773</v>
       </c>
@@ -29102,8 +29102,8 @@
     </row>
     <row r="513" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="49"/>
-      <c r="B513" s="46"/>
-      <c r="C513" s="46"/>
+      <c r="B513" s="47"/>
+      <c r="C513" s="47"/>
       <c r="D513" s="22" t="s">
         <v>1776</v>
       </c>
@@ -29134,8 +29134,8 @@
     </row>
     <row r="516" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A516" s="49"/>
-      <c r="B516" s="46"/>
-      <c r="C516" s="46"/>
+      <c r="B516" s="47"/>
+      <c r="C516" s="47"/>
       <c r="D516" s="22" t="s">
         <v>1780</v>
       </c>
@@ -29192,8 +29192,8 @@
     </row>
     <row r="521" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="49"/>
-      <c r="B521" s="46"/>
-      <c r="C521" s="46"/>
+      <c r="B521" s="47"/>
+      <c r="C521" s="47"/>
       <c r="D521" s="22" t="s">
         <v>1789</v>
       </c>
@@ -29224,8 +29224,8 @@
     </row>
     <row r="524" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A524" s="49"/>
-      <c r="B524" s="46"/>
-      <c r="C524" s="46"/>
+      <c r="B524" s="47"/>
+      <c r="C524" s="47"/>
       <c r="D524" s="22" t="s">
         <v>1792</v>
       </c>
@@ -29244,8 +29244,8 @@
     </row>
     <row r="526" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A526" s="49"/>
-      <c r="B526" s="46"/>
-      <c r="C526" s="46"/>
+      <c r="B526" s="47"/>
+      <c r="C526" s="47"/>
       <c r="D526" s="22" t="s">
         <v>1795</v>
       </c>
@@ -29276,16 +29276,16 @@
     </row>
     <row r="529" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A529" s="49"/>
-      <c r="B529" s="47"/>
-      <c r="C529" s="47"/>
+      <c r="B529" s="46"/>
+      <c r="C529" s="46"/>
       <c r="D529" s="22" t="s">
         <v>1799</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="49"/>
-      <c r="B530" s="46"/>
-      <c r="C530" s="46"/>
+      <c r="B530" s="47"/>
+      <c r="C530" s="47"/>
       <c r="D530" s="22" t="s">
         <v>1800</v>
       </c>
@@ -29424,16 +29424,16 @@
     </row>
     <row r="542" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A542" s="49"/>
-      <c r="B542" s="47"/>
-      <c r="C542" s="47"/>
+      <c r="B542" s="46"/>
+      <c r="C542" s="46"/>
       <c r="D542" s="23" t="s">
         <v>1822</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="49"/>
-      <c r="B543" s="46"/>
-      <c r="C543" s="46"/>
+      <c r="B543" s="47"/>
+      <c r="C543" s="47"/>
       <c r="D543" s="22" t="s">
         <v>1823</v>
       </c>
@@ -29476,16 +29476,16 @@
     </row>
     <row r="547" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="49"/>
-      <c r="B547" s="47"/>
-      <c r="C547" s="47"/>
+      <c r="B547" s="46"/>
+      <c r="C547" s="46"/>
       <c r="D547" s="22" t="s">
         <v>1831</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A548" s="50"/>
-      <c r="B548" s="46"/>
-      <c r="C548" s="46"/>
+      <c r="B548" s="47"/>
+      <c r="C548" s="47"/>
       <c r="D548" s="22" t="s">
         <v>1832</v>
       </c>
@@ -29506,24 +29506,24 @@
     </row>
     <row r="550" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A550" s="49"/>
-      <c r="B550" s="47"/>
-      <c r="C550" s="47"/>
+      <c r="B550" s="46"/>
+      <c r="C550" s="46"/>
       <c r="D550" s="23" t="s">
         <v>1835</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A551" s="49"/>
-      <c r="B551" s="47"/>
-      <c r="C551" s="47"/>
+      <c r="B551" s="46"/>
+      <c r="C551" s="46"/>
       <c r="D551" s="22" t="s">
         <v>1836</v>
       </c>
     </row>
     <row r="552" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A552" s="49"/>
-      <c r="B552" s="46"/>
-      <c r="C552" s="46"/>
+      <c r="B552" s="47"/>
+      <c r="C552" s="47"/>
       <c r="D552" s="22" t="s">
         <v>1837</v>
       </c>
@@ -29542,32 +29542,32 @@
     </row>
     <row r="554" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="49"/>
-      <c r="B554" s="47"/>
-      <c r="C554" s="47"/>
+      <c r="B554" s="46"/>
+      <c r="C554" s="46"/>
       <c r="D554" s="22" t="s">
         <v>1840</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A555" s="49"/>
-      <c r="B555" s="47"/>
-      <c r="C555" s="47"/>
+      <c r="B555" s="46"/>
+      <c r="C555" s="46"/>
       <c r="D555" s="22" t="s">
         <v>1841</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A556" s="49"/>
-      <c r="B556" s="47"/>
-      <c r="C556" s="47"/>
+      <c r="B556" s="46"/>
+      <c r="C556" s="46"/>
       <c r="D556" s="22" t="s">
         <v>1842</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="49"/>
-      <c r="B557" s="46"/>
-      <c r="C557" s="46"/>
+      <c r="B557" s="47"/>
+      <c r="C557" s="47"/>
       <c r="D557" s="22" t="s">
         <v>1843</v>
       </c>
@@ -29612,8 +29612,8 @@
     </row>
     <row r="561" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="49"/>
-      <c r="B561" s="46"/>
-      <c r="C561" s="46"/>
+      <c r="B561" s="47"/>
+      <c r="C561" s="47"/>
       <c r="D561" s="22" t="s">
         <v>1848</v>
       </c>
@@ -29632,8 +29632,8 @@
     </row>
     <row r="563" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="49"/>
-      <c r="B563" s="46"/>
-      <c r="C563" s="46"/>
+      <c r="B563" s="47"/>
+      <c r="C563" s="47"/>
       <c r="D563" s="22" t="s">
         <v>1851</v>
       </c>
@@ -29652,24 +29652,24 @@
     </row>
     <row r="565" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A565" s="49"/>
-      <c r="B565" s="47"/>
-      <c r="C565" s="47"/>
+      <c r="B565" s="46"/>
+      <c r="C565" s="46"/>
       <c r="D565" s="22" t="s">
         <v>1854</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="49"/>
-      <c r="B566" s="47"/>
-      <c r="C566" s="47"/>
+      <c r="B566" s="46"/>
+      <c r="C566" s="46"/>
       <c r="D566" s="22" t="s">
         <v>1855</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="49"/>
-      <c r="B567" s="46"/>
-      <c r="C567" s="46"/>
+      <c r="B567" s="47"/>
+      <c r="C567" s="47"/>
       <c r="D567" s="22" t="s">
         <v>1856</v>
       </c>
@@ -29738,16 +29738,16 @@
     </row>
     <row r="573" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A573" s="49"/>
-      <c r="B573" s="47"/>
-      <c r="C573" s="47"/>
+      <c r="B573" s="46"/>
+      <c r="C573" s="46"/>
       <c r="D573" s="22" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="49"/>
-      <c r="B574" s="46"/>
-      <c r="C574" s="46"/>
+      <c r="B574" s="47"/>
+      <c r="C574" s="47"/>
       <c r="D574" s="22" t="s">
         <v>1866</v>
       </c>
@@ -29790,7 +29790,7 @@
     </row>
     <row r="578" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="49"/>
-      <c r="B578" s="46"/>
+      <c r="B578" s="47"/>
       <c r="C578" s="22" t="s">
         <v>1873</v>
       </c>
@@ -29848,8 +29848,8 @@
     </row>
     <row r="583" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="50"/>
-      <c r="B583" s="46"/>
-      <c r="C583" s="46"/>
+      <c r="B583" s="47"/>
+      <c r="C583" s="47"/>
       <c r="D583" s="22" t="s">
         <v>1883</v>
       </c>
@@ -29882,8 +29882,8 @@
     </row>
     <row r="586" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A586" s="49"/>
-      <c r="B586" s="46"/>
-      <c r="C586" s="46"/>
+      <c r="B586" s="47"/>
+      <c r="C586" s="47"/>
       <c r="D586" s="22" t="s">
         <v>1887</v>
       </c>
@@ -29914,16 +29914,16 @@
     </row>
     <row r="589" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="49"/>
-      <c r="B589" s="47"/>
-      <c r="C589" s="47"/>
+      <c r="B589" s="46"/>
+      <c r="C589" s="46"/>
       <c r="D589" s="22" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="49"/>
-      <c r="B590" s="46"/>
-      <c r="C590" s="46"/>
+      <c r="B590" s="47"/>
+      <c r="C590" s="47"/>
       <c r="D590" s="22" t="s">
         <v>1892</v>
       </c>
@@ -29942,24 +29942,24 @@
     </row>
     <row r="592" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="49"/>
-      <c r="B592" s="47"/>
-      <c r="C592" s="47"/>
+      <c r="B592" s="46"/>
+      <c r="C592" s="46"/>
       <c r="D592" s="22" t="s">
         <v>1895</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="49"/>
-      <c r="B593" s="47"/>
-      <c r="C593" s="47"/>
+      <c r="B593" s="46"/>
+      <c r="C593" s="46"/>
       <c r="D593" s="22" t="s">
         <v>1896</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="49"/>
-      <c r="B594" s="46"/>
-      <c r="C594" s="46"/>
+      <c r="B594" s="47"/>
+      <c r="C594" s="47"/>
       <c r="D594" s="22" t="s">
         <v>1897</v>
       </c>
@@ -29978,8 +29978,8 @@
     </row>
     <row r="596" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A596" s="49"/>
-      <c r="B596" s="46"/>
-      <c r="C596" s="46"/>
+      <c r="B596" s="47"/>
+      <c r="C596" s="47"/>
       <c r="D596" s="22" t="s">
         <v>1900</v>
       </c>
@@ -29998,24 +29998,24 @@
     </row>
     <row r="598" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="49"/>
-      <c r="B598" s="47"/>
-      <c r="C598" s="47"/>
+      <c r="B598" s="46"/>
+      <c r="C598" s="46"/>
       <c r="D598" s="22" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A599" s="49"/>
-      <c r="B599" s="47"/>
-      <c r="C599" s="47"/>
+      <c r="B599" s="46"/>
+      <c r="C599" s="46"/>
       <c r="D599" s="22" t="s">
         <v>1904</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A600" s="49"/>
-      <c r="B600" s="46"/>
-      <c r="C600" s="46"/>
+      <c r="B600" s="47"/>
+      <c r="C600" s="47"/>
       <c r="D600" s="22" t="s">
         <v>1905</v>
       </c>
@@ -30034,8 +30034,8 @@
     </row>
     <row r="602" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A602" s="49"/>
-      <c r="B602" s="46"/>
-      <c r="C602" s="46"/>
+      <c r="B602" s="47"/>
+      <c r="C602" s="47"/>
       <c r="D602" s="22" t="s">
         <v>1908</v>
       </c>
@@ -30054,24 +30054,24 @@
     </row>
     <row r="604" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A604" s="49"/>
-      <c r="B604" s="47"/>
-      <c r="C604" s="47"/>
+      <c r="B604" s="46"/>
+      <c r="C604" s="46"/>
       <c r="D604" s="22" t="s">
         <v>1911</v>
       </c>
     </row>
     <row r="605" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="49"/>
-      <c r="B605" s="47"/>
-      <c r="C605" s="47"/>
+      <c r="B605" s="46"/>
+      <c r="C605" s="46"/>
       <c r="D605" s="22" t="s">
         <v>1912</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A606" s="49"/>
-      <c r="B606" s="46"/>
-      <c r="C606" s="46"/>
+      <c r="B606" s="47"/>
+      <c r="C606" s="47"/>
       <c r="D606" s="22" t="s">
         <v>1913</v>
       </c>
@@ -30090,24 +30090,24 @@
     </row>
     <row r="608" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="49"/>
-      <c r="B608" s="47"/>
-      <c r="C608" s="47"/>
+      <c r="B608" s="46"/>
+      <c r="C608" s="46"/>
       <c r="D608" s="22" t="s">
         <v>1916</v>
       </c>
     </row>
     <row r="609" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A609" s="49"/>
-      <c r="B609" s="47"/>
-      <c r="C609" s="47"/>
+      <c r="B609" s="46"/>
+      <c r="C609" s="46"/>
       <c r="D609" s="22" t="s">
         <v>1917</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A610" s="49"/>
-      <c r="B610" s="46"/>
-      <c r="C610" s="46"/>
+      <c r="B610" s="47"/>
+      <c r="C610" s="47"/>
       <c r="D610" s="22" t="s">
         <v>1918</v>
       </c>
@@ -30126,8 +30126,8 @@
     </row>
     <row r="612" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A612" s="49"/>
-      <c r="B612" s="46"/>
-      <c r="C612" s="46"/>
+      <c r="B612" s="47"/>
+      <c r="C612" s="47"/>
       <c r="D612" s="22" t="s">
         <v>1921</v>
       </c>
@@ -30146,32 +30146,32 @@
     </row>
     <row r="614" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A614" s="49"/>
-      <c r="B614" s="47"/>
-      <c r="C614" s="47"/>
+      <c r="B614" s="46"/>
+      <c r="C614" s="46"/>
       <c r="D614" s="22" t="s">
         <v>1924</v>
       </c>
     </row>
     <row r="615" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="49"/>
-      <c r="B615" s="47"/>
-      <c r="C615" s="47"/>
+      <c r="B615" s="46"/>
+      <c r="C615" s="46"/>
       <c r="D615" s="22" t="s">
         <v>1925</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="49"/>
-      <c r="B616" s="47"/>
-      <c r="C616" s="47"/>
+      <c r="B616" s="46"/>
+      <c r="C616" s="46"/>
       <c r="D616" s="22" t="s">
         <v>1926</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A617" s="49"/>
-      <c r="B617" s="46"/>
-      <c r="C617" s="46"/>
+      <c r="B617" s="47"/>
+      <c r="C617" s="47"/>
       <c r="D617" s="22" t="s">
         <v>1927</v>
       </c>
@@ -30202,8 +30202,8 @@
     </row>
     <row r="620" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A620" s="49"/>
-      <c r="B620" s="46"/>
-      <c r="C620" s="46"/>
+      <c r="B620" s="47"/>
+      <c r="C620" s="47"/>
       <c r="D620" s="22" t="s">
         <v>1933</v>
       </c>
@@ -30234,8 +30234,8 @@
     </row>
     <row r="623" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="49"/>
-      <c r="B623" s="46"/>
-      <c r="C623" s="46"/>
+      <c r="B623" s="47"/>
+      <c r="C623" s="47"/>
       <c r="D623" s="22" t="s">
         <v>1939</v>
       </c>
@@ -30254,8 +30254,8 @@
     </row>
     <row r="625" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A625" s="49"/>
-      <c r="B625" s="46"/>
-      <c r="C625" s="46"/>
+      <c r="B625" s="47"/>
+      <c r="C625" s="47"/>
       <c r="D625" s="22" t="s">
         <v>1943</v>
       </c>
@@ -30274,6 +30274,285 @@
     </row>
   </sheetData>
   <mergeCells count="303">
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="A41:A57"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="A92:A109"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A58:A91"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="C73:C79"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="A142:A157"/>
+    <mergeCell ref="B142:B148"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="A166:A180"/>
+    <mergeCell ref="B166:B170"/>
+    <mergeCell ref="C166:C170"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A165"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="A181:A187"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="C182:C187"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="C190:C194"/>
+    <mergeCell ref="B195:B199"/>
+    <mergeCell ref="C195:C199"/>
+    <mergeCell ref="A221:A245"/>
+    <mergeCell ref="B221:B225"/>
+    <mergeCell ref="C221:C225"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="B235:B241"/>
+    <mergeCell ref="C235:C241"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="C215:C219"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="A275:A284"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="A246:A269"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="C301:C304"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="A285:A298"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="C285:C288"/>
+    <mergeCell ref="B289:B291"/>
+    <mergeCell ref="C289:C291"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="A305:A307"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A331"/>
+    <mergeCell ref="B310:B312"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="B317:B321"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="B335:B336"/>
+    <mergeCell ref="C335:C336"/>
+    <mergeCell ref="C317:C321"/>
+    <mergeCell ref="B323:B325"/>
+    <mergeCell ref="C323:C325"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="B362:B370"/>
+    <mergeCell ref="C362:C370"/>
+    <mergeCell ref="B372:B379"/>
+    <mergeCell ref="C372:C379"/>
+    <mergeCell ref="B380:B386"/>
+    <mergeCell ref="C380:C386"/>
+    <mergeCell ref="B339:B348"/>
+    <mergeCell ref="C339:C348"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="C349:C352"/>
+    <mergeCell ref="B353:B361"/>
+    <mergeCell ref="C353:C361"/>
+    <mergeCell ref="B403:B412"/>
+    <mergeCell ref="C403:C412"/>
+    <mergeCell ref="B413:B417"/>
+    <mergeCell ref="C413:C417"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="C418:C419"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="B389:B396"/>
+    <mergeCell ref="C389:C396"/>
+    <mergeCell ref="B397:B402"/>
+    <mergeCell ref="C397:C402"/>
+    <mergeCell ref="B431:B433"/>
+    <mergeCell ref="C431:C433"/>
+    <mergeCell ref="A434:A441"/>
+    <mergeCell ref="B434:B436"/>
+    <mergeCell ref="C434:C436"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="B420:B425"/>
+    <mergeCell ref="C420:C425"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="C426:C427"/>
+    <mergeCell ref="B428:B430"/>
+    <mergeCell ref="C428:C430"/>
+    <mergeCell ref="C465:C467"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="C469:C470"/>
+    <mergeCell ref="B471:B472"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="B473:B476"/>
+    <mergeCell ref="C473:C476"/>
+    <mergeCell ref="A442:A468"/>
+    <mergeCell ref="B443:B444"/>
+    <mergeCell ref="C443:C444"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="C446:C447"/>
+    <mergeCell ref="B450:B451"/>
+    <mergeCell ref="C450:C451"/>
+    <mergeCell ref="B454:B458"/>
+    <mergeCell ref="C454:C458"/>
+    <mergeCell ref="B465:B467"/>
+    <mergeCell ref="B488:B489"/>
+    <mergeCell ref="C488:C489"/>
+    <mergeCell ref="B490:B492"/>
+    <mergeCell ref="C490:C492"/>
+    <mergeCell ref="B493:B498"/>
+    <mergeCell ref="C493:C498"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="C477:C480"/>
+    <mergeCell ref="B481:B483"/>
+    <mergeCell ref="C481:C483"/>
+    <mergeCell ref="B486:B487"/>
+    <mergeCell ref="C486:C487"/>
+    <mergeCell ref="B499:B501"/>
+    <mergeCell ref="C499:C501"/>
+    <mergeCell ref="A504:A511"/>
+    <mergeCell ref="B504:B505"/>
+    <mergeCell ref="C504:C505"/>
+    <mergeCell ref="B506:B509"/>
+    <mergeCell ref="C506:C509"/>
+    <mergeCell ref="B510:B511"/>
+    <mergeCell ref="C510:C511"/>
+    <mergeCell ref="B525:B526"/>
+    <mergeCell ref="C525:C526"/>
+    <mergeCell ref="B528:B530"/>
+    <mergeCell ref="C528:C530"/>
+    <mergeCell ref="B541:B543"/>
+    <mergeCell ref="C541:C543"/>
+    <mergeCell ref="A512:A519"/>
+    <mergeCell ref="B512:B513"/>
+    <mergeCell ref="C512:C513"/>
+    <mergeCell ref="B515:B516"/>
+    <mergeCell ref="C515:C516"/>
+    <mergeCell ref="A520:A548"/>
+    <mergeCell ref="B520:B521"/>
+    <mergeCell ref="C520:C521"/>
+    <mergeCell ref="B523:B524"/>
+    <mergeCell ref="C523:C524"/>
+    <mergeCell ref="B546:B548"/>
+    <mergeCell ref="C546:C548"/>
+    <mergeCell ref="A559:A569"/>
+    <mergeCell ref="B560:B561"/>
+    <mergeCell ref="C560:C561"/>
+    <mergeCell ref="B562:B563"/>
+    <mergeCell ref="C562:C563"/>
+    <mergeCell ref="B564:B567"/>
+    <mergeCell ref="C564:C567"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="B549:B552"/>
+    <mergeCell ref="C549:C552"/>
+    <mergeCell ref="B553:B557"/>
+    <mergeCell ref="C553:C557"/>
+    <mergeCell ref="C601:C602"/>
+    <mergeCell ref="B603:B606"/>
+    <mergeCell ref="A570:A583"/>
+    <mergeCell ref="B572:B574"/>
+    <mergeCell ref="C572:C574"/>
+    <mergeCell ref="B577:B578"/>
+    <mergeCell ref="B582:B583"/>
+    <mergeCell ref="C582:C583"/>
+    <mergeCell ref="C603:C606"/>
     <mergeCell ref="B607:B610"/>
     <mergeCell ref="C607:C610"/>
     <mergeCell ref="A584:A626"/>
@@ -30298,285 +30577,6 @@
     <mergeCell ref="C619:C620"/>
     <mergeCell ref="C597:C600"/>
     <mergeCell ref="B601:B602"/>
-    <mergeCell ref="C601:C602"/>
-    <mergeCell ref="B603:B606"/>
-    <mergeCell ref="A570:A583"/>
-    <mergeCell ref="B572:B574"/>
-    <mergeCell ref="C572:C574"/>
-    <mergeCell ref="B577:B578"/>
-    <mergeCell ref="B582:B583"/>
-    <mergeCell ref="C582:C583"/>
-    <mergeCell ref="C603:C606"/>
-    <mergeCell ref="A559:A569"/>
-    <mergeCell ref="B560:B561"/>
-    <mergeCell ref="C560:C561"/>
-    <mergeCell ref="B562:B563"/>
-    <mergeCell ref="C562:C563"/>
-    <mergeCell ref="B564:B567"/>
-    <mergeCell ref="C564:C567"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="B549:B552"/>
-    <mergeCell ref="C549:C552"/>
-    <mergeCell ref="B553:B557"/>
-    <mergeCell ref="C553:C557"/>
-    <mergeCell ref="B525:B526"/>
-    <mergeCell ref="C525:C526"/>
-    <mergeCell ref="B528:B530"/>
-    <mergeCell ref="C528:C530"/>
-    <mergeCell ref="B541:B543"/>
-    <mergeCell ref="C541:C543"/>
-    <mergeCell ref="A512:A519"/>
-    <mergeCell ref="B512:B513"/>
-    <mergeCell ref="C512:C513"/>
-    <mergeCell ref="B515:B516"/>
-    <mergeCell ref="C515:C516"/>
-    <mergeCell ref="A520:A548"/>
-    <mergeCell ref="B520:B521"/>
-    <mergeCell ref="C520:C521"/>
-    <mergeCell ref="B523:B524"/>
-    <mergeCell ref="C523:C524"/>
-    <mergeCell ref="B546:B548"/>
-    <mergeCell ref="C546:C548"/>
-    <mergeCell ref="B499:B501"/>
-    <mergeCell ref="C499:C501"/>
-    <mergeCell ref="A504:A511"/>
-    <mergeCell ref="B504:B505"/>
-    <mergeCell ref="C504:C505"/>
-    <mergeCell ref="B506:B509"/>
-    <mergeCell ref="C506:C509"/>
-    <mergeCell ref="B510:B511"/>
-    <mergeCell ref="C510:C511"/>
-    <mergeCell ref="B488:B489"/>
-    <mergeCell ref="C488:C489"/>
-    <mergeCell ref="B490:B492"/>
-    <mergeCell ref="C490:C492"/>
-    <mergeCell ref="B493:B498"/>
-    <mergeCell ref="C493:C498"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="C477:C480"/>
-    <mergeCell ref="B481:B483"/>
-    <mergeCell ref="C481:C483"/>
-    <mergeCell ref="B486:B487"/>
-    <mergeCell ref="C486:C487"/>
-    <mergeCell ref="C465:C467"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="C469:C470"/>
-    <mergeCell ref="B471:B472"/>
-    <mergeCell ref="C471:C472"/>
-    <mergeCell ref="B473:B476"/>
-    <mergeCell ref="C473:C476"/>
-    <mergeCell ref="A442:A468"/>
-    <mergeCell ref="B443:B444"/>
-    <mergeCell ref="C443:C444"/>
-    <mergeCell ref="B446:B447"/>
-    <mergeCell ref="C446:C447"/>
-    <mergeCell ref="B450:B451"/>
-    <mergeCell ref="C450:C451"/>
-    <mergeCell ref="B454:B458"/>
-    <mergeCell ref="C454:C458"/>
-    <mergeCell ref="B465:B467"/>
-    <mergeCell ref="B431:B433"/>
-    <mergeCell ref="C431:C433"/>
-    <mergeCell ref="A434:A441"/>
-    <mergeCell ref="B434:B436"/>
-    <mergeCell ref="C434:C436"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="B420:B425"/>
-    <mergeCell ref="C420:C425"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="C426:C427"/>
-    <mergeCell ref="B428:B430"/>
-    <mergeCell ref="C428:C430"/>
-    <mergeCell ref="B403:B412"/>
-    <mergeCell ref="C403:C412"/>
-    <mergeCell ref="B413:B417"/>
-    <mergeCell ref="C413:C417"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="C418:C419"/>
-    <mergeCell ref="B387:B388"/>
-    <mergeCell ref="C387:C388"/>
-    <mergeCell ref="B389:B396"/>
-    <mergeCell ref="C389:C396"/>
-    <mergeCell ref="B397:B402"/>
-    <mergeCell ref="C397:C402"/>
-    <mergeCell ref="B362:B370"/>
-    <mergeCell ref="C362:C370"/>
-    <mergeCell ref="B372:B379"/>
-    <mergeCell ref="C372:C379"/>
-    <mergeCell ref="B380:B386"/>
-    <mergeCell ref="C380:C386"/>
-    <mergeCell ref="B339:B348"/>
-    <mergeCell ref="C339:C348"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="C349:C352"/>
-    <mergeCell ref="B353:B361"/>
-    <mergeCell ref="C353:C361"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="B335:B336"/>
-    <mergeCell ref="C335:C336"/>
-    <mergeCell ref="C317:C321"/>
-    <mergeCell ref="B323:B325"/>
-    <mergeCell ref="C323:C325"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="C328:C329"/>
-    <mergeCell ref="A305:A307"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="C305:C307"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="A310:A331"/>
-    <mergeCell ref="B310:B312"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="B317:B321"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="A301:A304"/>
-    <mergeCell ref="B301:B304"/>
-    <mergeCell ref="C301:C304"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="A285:A298"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="C285:C288"/>
-    <mergeCell ref="B289:B291"/>
-    <mergeCell ref="C289:C291"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="A275:A284"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="A246:A269"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="A221:A245"/>
-    <mergeCell ref="B221:B225"/>
-    <mergeCell ref="C221:C225"/>
-    <mergeCell ref="B226:B232"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="B235:B241"/>
-    <mergeCell ref="C235:C241"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="C215:C219"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="A181:A187"/>
-    <mergeCell ref="B182:B187"/>
-    <mergeCell ref="C182:C187"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="C190:C194"/>
-    <mergeCell ref="B195:B199"/>
-    <mergeCell ref="C195:C199"/>
-    <mergeCell ref="A166:A180"/>
-    <mergeCell ref="B166:B170"/>
-    <mergeCell ref="C166:C170"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A165"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="C73:C79"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="A142:A157"/>
-    <mergeCell ref="B142:B148"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="B122:B127"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="B80:B86"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="A92:A109"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A58:A91"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="A41:A57"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -30587,7 +30587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE923864-50CF-4609-A65C-DA6A28C799B1}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
@@ -30608,11 +30608,11 @@
       <c r="B2" s="33" t="s">
         <v>1994</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>1995</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="51" t="s">
@@ -30632,8 +30632,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="36" t="s">
         <v>1999</v>
       </c>
@@ -30645,8 +30645,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="35" t="s">
         <v>2002</v>
       </c>
@@ -30658,8 +30658,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="35" t="s">
         <v>2005</v>
       </c>
@@ -30671,8 +30671,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="35" t="s">
         <v>2008</v>
       </c>
@@ -30684,8 +30684,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="35" t="s">
         <v>2011</v>
       </c>
@@ -30697,8 +30697,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="35" t="s">
         <v>2014</v>
       </c>
@@ -30710,8 +30710,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="35" t="s">
         <v>2017</v>
       </c>
@@ -30723,8 +30723,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="35" t="s">
         <v>2020</v>
       </c>
@@ -30736,8 +30736,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="35" t="s">
         <v>2023</v>
       </c>
@@ -30749,8 +30749,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="35" t="s">
         <v>2026</v>
       </c>
@@ -30762,8 +30762,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="51" t="s">
         <v>2028</v>
       </c>
@@ -30775,8 +30775,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="52"/>
       <c r="D15" s="37" t="s">
         <v>2030</v>
@@ -30879,37 +30879,37 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="38" t="s">
         <v>2045</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="38" t="s">
         <v>2046</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="38" t="s">
         <v>2047</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="38" t="s">
         <v>2048</v>
       </c>
@@ -30942,6 +30942,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -30951,16 +30961,6 @@
     <mergeCell ref="D22:D27"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="../../Users/Tom/AppData/Local/Microsoft/Windows/Temporary Internet Files/Content.Outlook/Competence Requirements/TA 01 Waste treatment  disposal Version 3.docx" xr:uid="{B45680E2-EE4E-4C2B-9535-CDF510CBBEE7}"/>
@@ -30976,7 +30976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809226DE-844B-46E1-97DC-49C36CD32271}">
   <dimension ref="A1:M730"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
+    <sheetView topLeftCell="A292" workbookViewId="0">
       <selection activeCell="M312" sqref="M312"/>
     </sheetView>
   </sheetViews>
@@ -30993,11 +30993,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -31027,11 +31027,11 @@
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
         <v>230</v>
@@ -31400,11 +31400,11 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -31434,11 +31434,11 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
         <v>230</v>
@@ -32041,11 +32041,11 @@
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -32075,11 +32075,11 @@
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15" t="s">
         <v>230</v>
@@ -32565,11 +32565,11 @@
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -32599,11 +32599,11 @@
       <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15" t="s">
         <v>230</v>
@@ -33089,11 +33089,11 @@
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -33123,11 +33123,11 @@
       <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="14"/>
       <c r="E67" s="15" t="s">
         <v>230</v>
@@ -33340,11 +33340,11 @@
       <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" s="57" t="s">
+      <c r="A74" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -33374,11 +33374,11 @@
       <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="14"/>
       <c r="E76" s="15" t="s">
         <v>230</v>
@@ -33669,11 +33669,11 @@
       <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
@@ -33703,11 +33703,11 @@
       <c r="M86" s="12"/>
     </row>
     <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A87" s="58" t="s">
+      <c r="A87" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
       <c r="D87" s="14"/>
       <c r="E87" s="15" t="s">
         <v>230</v>
@@ -33881,11 +33881,11 @@
       <c r="M92" s="12"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93" s="57" t="s">
+      <c r="A93" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
@@ -33915,11 +33915,11 @@
       <c r="M94" s="12"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A95" s="58" t="s">
+      <c r="A95" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
       <c r="D95" s="14"/>
       <c r="E95" s="15" t="s">
         <v>230</v>
@@ -34054,11 +34054,11 @@
       <c r="M99" s="12"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="58"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
@@ -34088,11 +34088,11 @@
       <c r="M101" s="12"/>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A102" s="58" t="s">
+      <c r="A102" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B102" s="58"/>
-      <c r="C102" s="58"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="14"/>
       <c r="E102" s="15" t="s">
         <v>230</v>
@@ -34266,11 +34266,11 @@
       <c r="M107" s="12"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A108" s="57" t="s">
+      <c r="A108" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
@@ -34300,11 +34300,11 @@
       <c r="M109" s="12"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A110" s="58" t="s">
+      <c r="A110" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
       <c r="D110" s="14"/>
       <c r="E110" s="15" t="s">
         <v>230</v>
@@ -34478,11 +34478,11 @@
       <c r="M115" s="12"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A116" s="57" t="s">
+      <c r="A116" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B116" s="57"/>
-      <c r="C116" s="57"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
@@ -34512,11 +34512,11 @@
       <c r="M117" s="12"/>
     </row>
     <row r="118" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A118" s="58" t="s">
+      <c r="A118" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="14"/>
       <c r="E118" s="15" t="s">
         <v>230</v>
@@ -34649,11 +34649,11 @@
       <c r="M122" s="12"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A123" s="57" t="s">
+      <c r="A123" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="B123" s="57"/>
-      <c r="C123" s="57"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
@@ -34683,11 +34683,11 @@
       <c r="M124" s="12"/>
     </row>
     <row r="125" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A125" s="58" t="s">
+      <c r="A125" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="14"/>
       <c r="E125" s="15" t="s">
         <v>230</v>
@@ -35017,11 +35017,11 @@
       <c r="M134" s="12"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A135" s="57" t="s">
+      <c r="A135" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="58"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
@@ -35051,11 +35051,11 @@
       <c r="M136" s="12"/>
     </row>
     <row r="137" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A137" s="58" t="s">
+      <c r="A137" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B137" s="58"/>
-      <c r="C137" s="58"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="57"/>
       <c r="D137" s="14"/>
       <c r="E137" s="15" t="s">
         <v>230</v>
@@ -35190,11 +35190,11 @@
       <c r="M141" s="12"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A142" s="57" t="s">
+      <c r="A142" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="B142" s="57"/>
-      <c r="C142" s="57"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="58"/>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
@@ -35224,11 +35224,11 @@
       <c r="M143" s="12"/>
     </row>
     <row r="144" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A144" s="58" t="s">
+      <c r="A144" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="57"/>
       <c r="D144" s="14"/>
       <c r="E144" s="15" t="s">
         <v>230</v>
@@ -35402,11 +35402,11 @@
       <c r="M149" s="12"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A150" s="57" t="s">
+      <c r="A150" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="B150" s="57"/>
-      <c r="C150" s="57"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
@@ -35436,11 +35436,11 @@
       <c r="M151" s="12"/>
     </row>
     <row r="152" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A152" s="58" t="s">
+      <c r="A152" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="57"/>
       <c r="D152" s="14"/>
       <c r="E152" s="15" t="s">
         <v>230</v>
@@ -35770,11 +35770,11 @@
       <c r="M161" s="12"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A162" s="57" t="s">
+      <c r="A162" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="58"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
       <c r="F162" s="14"/>
@@ -35804,11 +35804,11 @@
       <c r="M163" s="12"/>
     </row>
     <row r="164" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A164" s="58" t="s">
+      <c r="A164" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="57"/>
       <c r="D164" s="14"/>
       <c r="E164" s="15" t="s">
         <v>230</v>
@@ -35982,11 +35982,11 @@
       <c r="M169" s="12"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A170" s="57" t="s">
+      <c r="A170" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="58"/>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
       <c r="F170" s="14"/>
@@ -36016,11 +36016,11 @@
       <c r="M171" s="12"/>
     </row>
     <row r="172" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A172" s="58" t="s">
+      <c r="A172" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="57"/>
       <c r="D172" s="14"/>
       <c r="E172" s="15" t="s">
         <v>230</v>
@@ -36584,11 +36584,11 @@
       <c r="M187" s="12"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A188" s="57" t="s">
+      <c r="A188" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="B188" s="57"/>
-      <c r="C188" s="57"/>
+      <c r="B188" s="58"/>
+      <c r="C188" s="58"/>
       <c r="D188" s="14"/>
       <c r="E188" s="14"/>
       <c r="F188" s="14"/>
@@ -36618,11 +36618,11 @@
       <c r="M189" s="12"/>
     </row>
     <row r="190" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A190" s="58" t="s">
+      <c r="A190" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
+      <c r="B190" s="57"/>
+      <c r="C190" s="57"/>
       <c r="D190" s="14"/>
       <c r="E190" s="15" t="s">
         <v>230</v>
@@ -36991,11 +36991,11 @@
       <c r="M200" s="12"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A201" s="57" t="s">
+      <c r="A201" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="B201" s="57"/>
-      <c r="C201" s="57"/>
+      <c r="B201" s="58"/>
+      <c r="C201" s="58"/>
       <c r="D201" s="14"/>
       <c r="E201" s="14"/>
       <c r="F201" s="14"/>
@@ -37025,11 +37025,11 @@
       <c r="M202" s="12"/>
     </row>
     <row r="203" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A203" s="58" t="s">
+      <c r="A203" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B203" s="58"/>
-      <c r="C203" s="58"/>
+      <c r="B203" s="57"/>
+      <c r="C203" s="57"/>
       <c r="D203" s="14"/>
       <c r="E203" s="15" t="s">
         <v>230</v>
@@ -37671,11 +37671,11 @@
       <c r="M220" s="12"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A221" s="57" t="s">
+      <c r="A221" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="B221" s="57"/>
-      <c r="C221" s="57"/>
+      <c r="B221" s="58"/>
+      <c r="C221" s="58"/>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
       <c r="F221" s="14"/>
@@ -37705,11 +37705,11 @@
       <c r="M222" s="12"/>
     </row>
     <row r="223" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A223" s="58" t="s">
+      <c r="A223" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B223" s="58"/>
-      <c r="C223" s="58"/>
+      <c r="B223" s="57"/>
+      <c r="C223" s="57"/>
       <c r="D223" s="14"/>
       <c r="E223" s="15" t="s">
         <v>230</v>
@@ -37844,11 +37844,11 @@
       <c r="M227" s="12"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A228" s="57" t="s">
+      <c r="A228" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="B228" s="57"/>
-      <c r="C228" s="57"/>
+      <c r="B228" s="58"/>
+      <c r="C228" s="58"/>
       <c r="D228" s="14"/>
       <c r="E228" s="14"/>
       <c r="F228" s="14"/>
@@ -37878,11 +37878,11 @@
       <c r="M229" s="12"/>
     </row>
     <row r="230" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A230" s="58" t="s">
+      <c r="A230" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="58"/>
-      <c r="C230" s="58"/>
+      <c r="B230" s="57"/>
+      <c r="C230" s="57"/>
       <c r="D230" s="14"/>
       <c r="E230" s="15" t="s">
         <v>230</v>
@@ -38091,11 +38091,11 @@
       <c r="M236" s="12"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A237" s="57" t="s">
+      <c r="A237" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="B237" s="57"/>
-      <c r="C237" s="57"/>
+      <c r="B237" s="58"/>
+      <c r="C237" s="58"/>
       <c r="D237" s="14"/>
       <c r="E237" s="14"/>
       <c r="F237" s="14"/>
@@ -38125,11 +38125,11 @@
       <c r="M238" s="12"/>
     </row>
     <row r="239" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A239" s="58" t="s">
+      <c r="A239" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B239" s="58"/>
-      <c r="C239" s="58"/>
+      <c r="B239" s="57"/>
+      <c r="C239" s="57"/>
       <c r="D239" s="14"/>
       <c r="E239" s="15" t="s">
         <v>230</v>
@@ -38459,11 +38459,11 @@
       <c r="M248" s="12"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A249" s="57" t="s">
+      <c r="A249" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="B249" s="57"/>
-      <c r="C249" s="57"/>
+      <c r="B249" s="58"/>
+      <c r="C249" s="58"/>
       <c r="D249" s="14"/>
       <c r="E249" s="14"/>
       <c r="F249" s="14"/>
@@ -38493,11 +38493,11 @@
       <c r="M250" s="12"/>
     </row>
     <row r="251" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A251" s="58" t="s">
+      <c r="A251" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B251" s="58"/>
-      <c r="C251" s="58"/>
+      <c r="B251" s="57"/>
+      <c r="C251" s="57"/>
       <c r="D251" s="14"/>
       <c r="E251" s="15" t="s">
         <v>230</v>
@@ -38827,11 +38827,11 @@
       <c r="M260" s="12"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A261" s="57" t="s">
+      <c r="A261" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="B261" s="57"/>
-      <c r="C261" s="57"/>
+      <c r="B261" s="58"/>
+      <c r="C261" s="58"/>
       <c r="D261" s="14"/>
       <c r="E261" s="14"/>
       <c r="F261" s="14"/>
@@ -38861,11 +38861,11 @@
       <c r="M262" s="12"/>
     </row>
     <row r="263" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A263" s="58" t="s">
+      <c r="A263" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B263" s="58"/>
-      <c r="C263" s="58"/>
+      <c r="B263" s="57"/>
+      <c r="C263" s="57"/>
       <c r="D263" s="14"/>
       <c r="E263" s="15" t="s">
         <v>230</v>
@@ -39039,11 +39039,11 @@
       <c r="M268" s="12"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A269" s="57" t="s">
+      <c r="A269" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="B269" s="57"/>
-      <c r="C269" s="57"/>
+      <c r="B269" s="58"/>
+      <c r="C269" s="58"/>
       <c r="D269" s="14"/>
       <c r="E269" s="14"/>
       <c r="F269" s="14"/>
@@ -39073,11 +39073,11 @@
       <c r="M270" s="12"/>
     </row>
     <row r="271" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A271" s="58" t="s">
+      <c r="A271" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B271" s="58"/>
-      <c r="C271" s="58"/>
+      <c r="B271" s="57"/>
+      <c r="C271" s="57"/>
       <c r="D271" s="14"/>
       <c r="E271" s="15" t="s">
         <v>230</v>
@@ -39212,11 +39212,11 @@
       <c r="M275" s="12"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A276" s="57" t="s">
+      <c r="A276" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="B276" s="57"/>
-      <c r="C276" s="57"/>
+      <c r="B276" s="58"/>
+      <c r="C276" s="58"/>
       <c r="D276" s="14"/>
       <c r="E276" s="14"/>
       <c r="F276" s="14"/>
@@ -39246,11 +39246,11 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A278" s="58" t="s">
+      <c r="A278" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B278" s="58"/>
-      <c r="C278" s="58"/>
+      <c r="B278" s="57"/>
+      <c r="C278" s="57"/>
       <c r="D278" s="14"/>
       <c r="E278" s="15" t="s">
         <v>230</v>
@@ -39385,11 +39385,11 @@
       <c r="M282" s="12"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A283" s="57" t="s">
+      <c r="A283" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="B283" s="57"/>
-      <c r="C283" s="57"/>
+      <c r="B283" s="58"/>
+      <c r="C283" s="58"/>
       <c r="D283" s="14"/>
       <c r="E283" s="14"/>
       <c r="F283" s="14"/>
@@ -39419,11 +39419,11 @@
       <c r="M284" s="12"/>
     </row>
     <row r="285" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A285" s="58" t="s">
+      <c r="A285" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B285" s="58"/>
-      <c r="C285" s="58"/>
+      <c r="B285" s="57"/>
+      <c r="C285" s="57"/>
       <c r="D285" s="14"/>
       <c r="E285" s="15" t="s">
         <v>230</v>
@@ -39593,11 +39593,11 @@
       <c r="M290" s="12"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A291" s="57" t="s">
+      <c r="A291" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="B291" s="57"/>
-      <c r="C291" s="57"/>
+      <c r="B291" s="58"/>
+      <c r="C291" s="58"/>
       <c r="D291" s="14"/>
       <c r="E291" s="14"/>
       <c r="F291" s="14"/>
@@ -39627,11 +39627,11 @@
       <c r="M292" s="12"/>
     </row>
     <row r="293" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A293" s="58" t="s">
+      <c r="A293" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B293" s="58"/>
-      <c r="C293" s="58"/>
+      <c r="B293" s="57"/>
+      <c r="C293" s="57"/>
       <c r="D293" s="14"/>
       <c r="E293" s="15" t="s">
         <v>230</v>
@@ -39922,11 +39922,11 @@
       <c r="M301" s="12"/>
     </row>
     <row r="302" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A302" s="57" t="s">
+      <c r="A302" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="B302" s="57"/>
-      <c r="C302" s="57"/>
+      <c r="B302" s="58"/>
+      <c r="C302" s="58"/>
       <c r="D302" s="14"/>
       <c r="E302" s="14"/>
       <c r="F302" s="14"/>
@@ -39956,11 +39956,11 @@
       <c r="M303" s="12"/>
     </row>
     <row r="304" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A304" s="58" t="s">
+      <c r="A304" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B304" s="58"/>
-      <c r="C304" s="58"/>
+      <c r="B304" s="57"/>
+      <c r="C304" s="57"/>
       <c r="D304" s="14"/>
       <c r="E304" s="15" t="s">
         <v>230</v>
@@ -40797,11 +40797,11 @@
       <c r="M326" s="12"/>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A327" s="57" t="s">
+      <c r="A327" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="B327" s="57"/>
-      <c r="C327" s="57"/>
+      <c r="B327" s="58"/>
+      <c r="C327" s="58"/>
       <c r="D327" s="14"/>
       <c r="E327" s="14"/>
       <c r="F327" s="14"/>
@@ -40831,11 +40831,11 @@
       <c r="M328" s="12"/>
     </row>
     <row r="329" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A329" s="58" t="s">
+      <c r="A329" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B329" s="58"/>
-      <c r="C329" s="58"/>
+      <c r="B329" s="57"/>
+      <c r="C329" s="57"/>
       <c r="D329" s="14"/>
       <c r="E329" s="15" t="s">
         <v>230</v>
@@ -41126,11 +41126,11 @@
       <c r="M337" s="12"/>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A338" s="57" t="s">
+      <c r="A338" s="58" t="s">
         <v>543</v>
       </c>
-      <c r="B338" s="57"/>
-      <c r="C338" s="57"/>
+      <c r="B338" s="58"/>
+      <c r="C338" s="58"/>
       <c r="D338" s="14"/>
       <c r="E338" s="14"/>
       <c r="F338" s="14"/>
@@ -41160,11 +41160,11 @@
       <c r="M339" s="12"/>
     </row>
     <row r="340" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A340" s="58" t="s">
+      <c r="A340" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B340" s="58"/>
-      <c r="C340" s="58"/>
+      <c r="B340" s="57"/>
+      <c r="C340" s="57"/>
       <c r="D340" s="14"/>
       <c r="E340" s="15" t="s">
         <v>230</v>
@@ -41806,11 +41806,11 @@
       <c r="M357" s="12"/>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A358" s="57" t="s">
+      <c r="A358" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="B358" s="57"/>
-      <c r="C358" s="57"/>
+      <c r="B358" s="58"/>
+      <c r="C358" s="58"/>
       <c r="D358" s="14"/>
       <c r="E358" s="14"/>
       <c r="F358" s="14"/>
@@ -41840,11 +41840,11 @@
       <c r="M359" s="12"/>
     </row>
     <row r="360" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A360" s="58" t="s">
+      <c r="A360" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B360" s="58"/>
-      <c r="C360" s="58"/>
+      <c r="B360" s="57"/>
+      <c r="C360" s="57"/>
       <c r="D360" s="14"/>
       <c r="E360" s="15" t="s">
         <v>230</v>
@@ -42408,11 +42408,11 @@
       <c r="M375" s="12"/>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A376" s="57" t="s">
+      <c r="A376" s="58" t="s">
         <v>587</v>
       </c>
-      <c r="B376" s="57"/>
-      <c r="C376" s="57"/>
+      <c r="B376" s="58"/>
+      <c r="C376" s="58"/>
       <c r="D376" s="14"/>
       <c r="E376" s="14"/>
       <c r="F376" s="14"/>
@@ -42442,11 +42442,11 @@
       <c r="M377" s="12"/>
     </row>
     <row r="378" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A378" s="58" t="s">
+      <c r="A378" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B378" s="58"/>
-      <c r="C378" s="58"/>
+      <c r="B378" s="57"/>
+      <c r="C378" s="57"/>
       <c r="D378" s="14"/>
       <c r="E378" s="15" t="s">
         <v>230</v>
@@ -42776,11 +42776,11 @@
       <c r="M387" s="12"/>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A388" s="57" t="s">
+      <c r="A388" s="58" t="s">
         <v>595</v>
       </c>
-      <c r="B388" s="57"/>
-      <c r="C388" s="57"/>
+      <c r="B388" s="58"/>
+      <c r="C388" s="58"/>
       <c r="D388" s="14"/>
       <c r="E388" s="14"/>
       <c r="F388" s="14"/>
@@ -42810,11 +42810,11 @@
       <c r="M389" s="12"/>
     </row>
     <row r="390" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A390" s="58" t="s">
+      <c r="A390" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B390" s="58"/>
-      <c r="C390" s="58"/>
+      <c r="B390" s="57"/>
+      <c r="C390" s="57"/>
       <c r="D390" s="14"/>
       <c r="E390" s="15" t="s">
         <v>230</v>
@@ -43027,11 +43027,11 @@
       <c r="M396" s="12"/>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A397" s="57" t="s">
+      <c r="A397" s="58" t="s">
         <v>600</v>
       </c>
-      <c r="B397" s="57"/>
-      <c r="C397" s="57"/>
+      <c r="B397" s="58"/>
+      <c r="C397" s="58"/>
       <c r="D397" s="14"/>
       <c r="E397" s="14"/>
       <c r="F397" s="14"/>
@@ -43061,11 +43061,11 @@
       <c r="M398" s="12"/>
     </row>
     <row r="399" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A399" s="58" t="s">
+      <c r="A399" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B399" s="58"/>
-      <c r="C399" s="58"/>
+      <c r="B399" s="57"/>
+      <c r="C399" s="57"/>
       <c r="D399" s="14"/>
       <c r="E399" s="15" t="s">
         <v>230</v>
@@ -43477,11 +43477,11 @@
       <c r="M410" s="12"/>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A411" s="57" t="s">
+      <c r="A411" s="58" t="s">
         <v>612</v>
       </c>
-      <c r="B411" s="57"/>
-      <c r="C411" s="57"/>
+      <c r="B411" s="58"/>
+      <c r="C411" s="58"/>
       <c r="D411" s="14"/>
       <c r="E411" s="14"/>
       <c r="F411" s="14"/>
@@ -43511,11 +43511,11 @@
       <c r="M412" s="12"/>
     </row>
     <row r="413" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A413" s="58" t="s">
+      <c r="A413" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B413" s="58"/>
-      <c r="C413" s="58"/>
+      <c r="B413" s="57"/>
+      <c r="C413" s="57"/>
       <c r="D413" s="14"/>
       <c r="E413" s="15" t="s">
         <v>230</v>
@@ -43730,11 +43730,11 @@
       <c r="M419" s="12"/>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A420" s="57" t="s">
+      <c r="A420" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="B420" s="57"/>
-      <c r="C420" s="57"/>
+      <c r="B420" s="58"/>
+      <c r="C420" s="58"/>
       <c r="D420" s="14"/>
       <c r="E420" s="14"/>
       <c r="F420" s="14"/>
@@ -43764,11 +43764,11 @@
       <c r="M421" s="12"/>
     </row>
     <row r="422" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A422" s="58" t="s">
+      <c r="A422" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B422" s="58"/>
-      <c r="C422" s="58"/>
+      <c r="B422" s="57"/>
+      <c r="C422" s="57"/>
       <c r="D422" s="14"/>
       <c r="E422" s="15" t="s">
         <v>230</v>
@@ -44020,11 +44020,11 @@
       <c r="M429" s="12"/>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A430" s="57" t="s">
+      <c r="A430" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="B430" s="57"/>
-      <c r="C430" s="57"/>
+      <c r="B430" s="58"/>
+      <c r="C430" s="58"/>
       <c r="D430" s="14"/>
       <c r="E430" s="14"/>
       <c r="F430" s="14"/>
@@ -44054,11 +44054,11 @@
       <c r="M431" s="12"/>
     </row>
     <row r="432" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A432" s="58" t="s">
+      <c r="A432" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B432" s="58"/>
-      <c r="C432" s="58"/>
+      <c r="B432" s="57"/>
+      <c r="C432" s="57"/>
       <c r="D432" s="14"/>
       <c r="E432" s="15" t="s">
         <v>230</v>
@@ -44271,11 +44271,11 @@
       <c r="M438" s="12"/>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A439" s="57" t="s">
+      <c r="A439" s="58" t="s">
         <v>631</v>
       </c>
-      <c r="B439" s="57"/>
-      <c r="C439" s="57"/>
+      <c r="B439" s="58"/>
+      <c r="C439" s="58"/>
       <c r="D439" s="14"/>
       <c r="E439" s="14"/>
       <c r="F439" s="14"/>
@@ -44305,11 +44305,11 @@
       <c r="M440" s="12"/>
     </row>
     <row r="441" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A441" s="58" t="s">
+      <c r="A441" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B441" s="58"/>
-      <c r="C441" s="58"/>
+      <c r="B441" s="57"/>
+      <c r="C441" s="57"/>
       <c r="D441" s="14"/>
       <c r="E441" s="15" t="s">
         <v>230</v>
@@ -44873,11 +44873,11 @@
       <c r="M456" s="12"/>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A457" s="57" t="s">
+      <c r="A457" s="58" t="s">
         <v>656</v>
       </c>
-      <c r="B457" s="57"/>
-      <c r="C457" s="57"/>
+      <c r="B457" s="58"/>
+      <c r="C457" s="58"/>
       <c r="D457" s="14"/>
       <c r="E457" s="14"/>
       <c r="F457" s="14"/>
@@ -44907,11 +44907,11 @@
       <c r="M458" s="12"/>
     </row>
     <row r="459" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A459" s="58" t="s">
+      <c r="A459" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B459" s="58"/>
-      <c r="C459" s="58"/>
+      <c r="B459" s="57"/>
+      <c r="C459" s="57"/>
       <c r="D459" s="14"/>
       <c r="E459" s="15" t="s">
         <v>230</v>
@@ -45202,11 +45202,11 @@
       <c r="M467" s="12"/>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A468" s="57" t="s">
+      <c r="A468" s="58" t="s">
         <v>668</v>
       </c>
-      <c r="B468" s="57"/>
-      <c r="C468" s="57"/>
+      <c r="B468" s="58"/>
+      <c r="C468" s="58"/>
       <c r="D468" s="14"/>
       <c r="E468" s="14"/>
       <c r="F468" s="14"/>
@@ -45236,11 +45236,11 @@
       <c r="M469" s="12"/>
     </row>
     <row r="470" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A470" s="58" t="s">
+      <c r="A470" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B470" s="58"/>
-      <c r="C470" s="58"/>
+      <c r="B470" s="57"/>
+      <c r="C470" s="57"/>
       <c r="D470" s="14"/>
       <c r="E470" s="15" t="s">
         <v>230</v>
@@ -45780,11 +45780,11 @@
       <c r="M485" s="12"/>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A486" s="57" t="s">
+      <c r="A486" s="58" t="s">
         <v>694</v>
       </c>
-      <c r="B486" s="57"/>
-      <c r="C486" s="57"/>
+      <c r="B486" s="58"/>
+      <c r="C486" s="58"/>
       <c r="D486" s="14"/>
       <c r="E486" s="14"/>
       <c r="F486" s="14"/>
@@ -45814,11 +45814,11 @@
       <c r="M487" s="12"/>
     </row>
     <row r="488" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A488" s="58" t="s">
+      <c r="A488" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B488" s="58"/>
-      <c r="C488" s="58"/>
+      <c r="B488" s="57"/>
+      <c r="C488" s="57"/>
       <c r="D488" s="14"/>
       <c r="E488" s="15" t="s">
         <v>230</v>
@@ -46654,11 +46654,11 @@
       <c r="M511" s="12"/>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A512" s="57" t="s">
+      <c r="A512" s="58" t="s">
         <v>736</v>
       </c>
-      <c r="B512" s="57"/>
-      <c r="C512" s="57"/>
+      <c r="B512" s="58"/>
+      <c r="C512" s="58"/>
       <c r="D512" s="14"/>
       <c r="E512" s="14"/>
       <c r="F512" s="14"/>
@@ -46688,11 +46688,11 @@
       <c r="M513" s="12"/>
     </row>
     <row r="514" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A514" s="58" t="s">
+      <c r="A514" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B514" s="58"/>
-      <c r="C514" s="58"/>
+      <c r="B514" s="57"/>
+      <c r="C514" s="57"/>
       <c r="D514" s="14"/>
       <c r="E514" s="15" t="s">
         <v>230</v>
@@ -48453,11 +48453,11 @@
       <c r="M562" s="12"/>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A563" s="57" t="s">
+      <c r="A563" s="58" t="s">
         <v>736</v>
       </c>
-      <c r="B563" s="57"/>
-      <c r="C563" s="57"/>
+      <c r="B563" s="58"/>
+      <c r="C563" s="58"/>
       <c r="D563" s="14"/>
       <c r="E563" s="14"/>
       <c r="F563" s="14"/>
@@ -48487,11 +48487,11 @@
       <c r="M564" s="12"/>
     </row>
     <row r="565" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A565" s="58" t="s">
+      <c r="A565" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B565" s="58"/>
-      <c r="C565" s="58"/>
+      <c r="B565" s="57"/>
+      <c r="C565" s="57"/>
       <c r="D565" s="14"/>
       <c r="E565" s="15" t="s">
         <v>230</v>
@@ -49882,11 +49882,11 @@
       <c r="M603" s="12"/>
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A604" s="57" t="s">
+      <c r="A604" s="58" t="s">
         <v>899</v>
       </c>
-      <c r="B604" s="57"/>
-      <c r="C604" s="57"/>
+      <c r="B604" s="58"/>
+      <c r="C604" s="58"/>
       <c r="D604" s="14"/>
       <c r="E604" s="14"/>
       <c r="F604" s="14"/>
@@ -49916,11 +49916,11 @@
       <c r="M605" s="12"/>
     </row>
     <row r="606" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A606" s="58" t="s">
+      <c r="A606" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B606" s="58"/>
-      <c r="C606" s="58"/>
+      <c r="B606" s="57"/>
+      <c r="C606" s="57"/>
       <c r="D606" s="14"/>
       <c r="E606" s="15" t="s">
         <v>230</v>
@@ -50423,11 +50423,11 @@
       <c r="M620" s="12"/>
     </row>
     <row r="621" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A621" s="57" t="s">
+      <c r="A621" s="58" t="s">
         <v>923</v>
       </c>
-      <c r="B621" s="57"/>
-      <c r="C621" s="57"/>
+      <c r="B621" s="58"/>
+      <c r="C621" s="58"/>
       <c r="D621" s="14"/>
       <c r="E621" s="14"/>
       <c r="F621" s="14"/>
@@ -50457,11 +50457,11 @@
       <c r="M622" s="12"/>
     </row>
     <row r="623" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A623" s="58" t="s">
+      <c r="A623" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B623" s="58"/>
-      <c r="C623" s="58"/>
+      <c r="B623" s="57"/>
+      <c r="C623" s="57"/>
       <c r="D623" s="14"/>
       <c r="E623" s="15" t="s">
         <v>230</v>
@@ -52481,11 +52481,11 @@
       <c r="M678" s="12"/>
     </row>
     <row r="679" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A679" s="57" t="s">
+      <c r="A679" s="58" t="s">
         <v>923</v>
       </c>
-      <c r="B679" s="57"/>
-      <c r="C679" s="57"/>
+      <c r="B679" s="58"/>
+      <c r="C679" s="58"/>
       <c r="D679" s="14"/>
       <c r="E679" s="14"/>
       <c r="F679" s="14"/>
@@ -52515,11 +52515,11 @@
       <c r="M680" s="12"/>
     </row>
     <row r="681" spans="1:13" ht="20" x14ac:dyDescent="0.35">
-      <c r="A681" s="58" t="s">
+      <c r="A681" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B681" s="58"/>
-      <c r="C681" s="58"/>
+      <c r="B681" s="57"/>
+      <c r="C681" s="57"/>
       <c r="D681" s="14"/>
       <c r="E681" s="15" t="s">
         <v>230</v>
@@ -54338,6 +54338,88 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A621:C621"/>
+    <mergeCell ref="A623:C623"/>
+    <mergeCell ref="A679:C679"/>
+    <mergeCell ref="A681:C681"/>
+    <mergeCell ref="A512:C512"/>
+    <mergeCell ref="A514:C514"/>
+    <mergeCell ref="A563:C563"/>
+    <mergeCell ref="A565:C565"/>
+    <mergeCell ref="A604:C604"/>
+    <mergeCell ref="A606:C606"/>
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A457:C457"/>
+    <mergeCell ref="A459:C459"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A360:C360"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A123:C123"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
@@ -54350,88 +54432,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A360:C360"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A488:C488"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A457:C457"/>
-    <mergeCell ref="A459:C459"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="A621:C621"/>
-    <mergeCell ref="A623:C623"/>
-    <mergeCell ref="A679:C679"/>
-    <mergeCell ref="A681:C681"/>
-    <mergeCell ref="A512:C512"/>
-    <mergeCell ref="A514:C514"/>
-    <mergeCell ref="A563:C563"/>
-    <mergeCell ref="A565:C565"/>
-    <mergeCell ref="A604:C604"/>
-    <mergeCell ref="A606:C606"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
